--- a/Data/orangedata2.xlsx
+++ b/Data/orangedata2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madha\Desktop\Internship3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F24D8F3-D748-4A48-A1CC-8811F0633880}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF148510-B3FE-40F4-8401-74224B87FA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="40">
   <si>
     <t>Application</t>
   </si>
@@ -626,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791B38D4-FE11-4D03-8C1C-CDCA21B63CD3}">
-  <dimension ref="A1:P1000"/>
+  <dimension ref="A1:P999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="A756" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A764" sqref="A764:XFD764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39493,29 +39493,29 @@
         <v>14.7</v>
       </c>
       <c r="J707" s="12">
-        <f t="shared" ref="J707:J770" si="55">I707/G707*100</f>
+        <f t="shared" ref="J707:J769" si="55">I707/G707*100</f>
         <v>7.1567672833495619</v>
       </c>
       <c r="K707" s="4">
         <v>179.3</v>
       </c>
       <c r="L707" s="10">
-        <f t="shared" ref="L707:L770" si="56">G707-K707</f>
+        <f t="shared" ref="L707:L769" si="56">G707-K707</f>
         <v>26.099999999999994</v>
       </c>
       <c r="M707" s="13">
-        <f t="shared" ref="M707:M770" si="57">L707/G707*100</f>
+        <f t="shared" ref="M707:M769" si="57">L707/G707*100</f>
         <v>12.70691333982473</v>
       </c>
       <c r="N707" s="4">
         <v>173.7</v>
       </c>
       <c r="O707" s="10">
-        <f t="shared" ref="O707:O770" si="58">G707-N707</f>
+        <f t="shared" ref="O707:O769" si="58">G707-N707</f>
         <v>31.700000000000017</v>
       </c>
       <c r="P707" s="13">
-        <f t="shared" ref="P707:P770" si="59">O707/G707*100</f>
+        <f t="shared" ref="P707:P769" si="59">O707/G707*100</f>
         <v>15.43330087633886</v>
       </c>
     </row>
@@ -42616,42 +42616,42 @@
         <v>34</v>
       </c>
       <c r="F764" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G764" s="3">
-        <v>183.9</v>
+        <v>169</v>
       </c>
       <c r="H764" s="4">
-        <v>133.4</v>
+        <v>163.1</v>
       </c>
       <c r="I764" s="9">
-        <v>50.5</v>
+        <v>5.9</v>
       </c>
       <c r="J764" s="12">
         <f t="shared" si="55"/>
-        <v>27.460576400217505</v>
+        <v>3.4911242603550297</v>
       </c>
       <c r="K764" s="4">
-        <v>173.8</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="L764" s="10">
         <f t="shared" si="56"/>
-        <v>10.099999999999994</v>
+        <v>9.1999999999999886</v>
       </c>
       <c r="M764" s="13">
         <f t="shared" si="57"/>
-        <v>5.4921152800434987</v>
+        <v>5.4437869822485139</v>
       </c>
       <c r="N764" s="4">
-        <v>170.3</v>
+        <v>156.69999999999999</v>
       </c>
       <c r="O764" s="10">
         <f t="shared" si="58"/>
-        <v>13.599999999999994</v>
+        <v>12.300000000000011</v>
       </c>
       <c r="P764" s="13">
         <f t="shared" si="59"/>
-        <v>7.3953235454051081</v>
+        <v>7.2781065088757462</v>
       </c>
     </row>
     <row r="765" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -42671,42 +42671,42 @@
         <v>34</v>
       </c>
       <c r="F765" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G765" s="3">
-        <v>169</v>
+        <v>157.6</v>
       </c>
       <c r="H765" s="4">
-        <v>163.1</v>
+        <v>151.19999999999999</v>
       </c>
       <c r="I765" s="9">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="J765" s="12">
         <f t="shared" si="55"/>
-        <v>3.4911242603550297</v>
+        <v>4.060913705583757</v>
       </c>
       <c r="K765" s="4">
-        <v>159.80000000000001</v>
+        <v>147.5</v>
       </c>
       <c r="L765" s="10">
         <f t="shared" si="56"/>
-        <v>9.1999999999999886</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="M765" s="13">
         <f t="shared" si="57"/>
-        <v>5.4437869822485139</v>
+        <v>6.4086294416243623</v>
       </c>
       <c r="N765" s="4">
-        <v>156.69999999999999</v>
+        <v>143.9</v>
       </c>
       <c r="O765" s="10">
         <f t="shared" si="58"/>
-        <v>12.300000000000011</v>
+        <v>13.699999999999989</v>
       </c>
       <c r="P765" s="13">
         <f t="shared" si="59"/>
-        <v>7.2781065088757462</v>
+        <v>8.6928934010152208</v>
       </c>
     </row>
     <row r="766" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -42717,51 +42717,51 @@
         <v>2</v>
       </c>
       <c r="C766" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D766" s="3">
         <v>0</v>
       </c>
       <c r="E766" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F766" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G766" s="3">
-        <v>157.6</v>
+        <v>179.5</v>
       </c>
       <c r="H766" s="4">
-        <v>151.19999999999999</v>
+        <v>169.9</v>
       </c>
       <c r="I766" s="9">
-        <v>6.4</v>
+        <v>9.6</v>
       </c>
       <c r="J766" s="12">
         <f t="shared" si="55"/>
-        <v>4.060913705583757</v>
+        <v>5.3481894150417828</v>
       </c>
       <c r="K766" s="4">
-        <v>147.5</v>
+        <v>161.4</v>
       </c>
       <c r="L766" s="10">
         <f t="shared" si="56"/>
-        <v>10.099999999999994</v>
+        <v>18.099999999999994</v>
       </c>
       <c r="M766" s="13">
         <f t="shared" si="57"/>
-        <v>6.4086294416243623</v>
+        <v>10.083565459610025</v>
       </c>
       <c r="N766" s="4">
-        <v>143.9</v>
+        <v>153.9</v>
       </c>
       <c r="O766" s="10">
         <f t="shared" si="58"/>
-        <v>13.699999999999989</v>
+        <v>25.599999999999994</v>
       </c>
       <c r="P766" s="13">
         <f t="shared" si="59"/>
-        <v>8.6928934010152208</v>
+        <v>14.261838440111418</v>
       </c>
     </row>
     <row r="767" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -42781,42 +42781,42 @@
         <v>36</v>
       </c>
       <c r="F767" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G767" s="3">
-        <v>179.5</v>
+        <v>167.7</v>
       </c>
       <c r="H767" s="4">
-        <v>169.9</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="I767" s="9">
-        <v>9.6</v>
+        <v>5.9</v>
       </c>
       <c r="J767" s="12">
         <f t="shared" si="55"/>
-        <v>5.3481894150417828</v>
+        <v>3.5181872391174722</v>
       </c>
       <c r="K767" s="4">
-        <v>161.4</v>
+        <v>156</v>
       </c>
       <c r="L767" s="10">
         <f t="shared" si="56"/>
-        <v>18.099999999999994</v>
+        <v>11.699999999999989</v>
       </c>
       <c r="M767" s="13">
         <f t="shared" si="57"/>
-        <v>10.083565459610025</v>
+        <v>6.9767441860465063</v>
       </c>
       <c r="N767" s="4">
-        <v>153.9</v>
+        <v>150.80000000000001</v>
       </c>
       <c r="O767" s="10">
         <f t="shared" si="58"/>
-        <v>25.599999999999994</v>
+        <v>16.899999999999977</v>
       </c>
       <c r="P767" s="13">
         <f t="shared" si="59"/>
-        <v>14.261838440111418</v>
+        <v>10.077519379844949</v>
       </c>
     </row>
     <row r="768" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -42836,42 +42836,42 @@
         <v>36</v>
       </c>
       <c r="F768" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G768" s="3">
-        <v>167.7</v>
+        <v>199.2</v>
       </c>
       <c r="H768" s="4">
-        <v>161.80000000000001</v>
+        <v>191.6</v>
       </c>
       <c r="I768" s="9">
-        <v>5.9</v>
+        <v>7.6</v>
       </c>
       <c r="J768" s="12">
         <f t="shared" si="55"/>
-        <v>3.5181872391174722</v>
+        <v>3.8152610441767072</v>
       </c>
       <c r="K768" s="4">
-        <v>156</v>
+        <v>184.7</v>
       </c>
       <c r="L768" s="10">
         <f t="shared" si="56"/>
-        <v>11.699999999999989</v>
+        <v>14.5</v>
       </c>
       <c r="M768" s="13">
         <f t="shared" si="57"/>
-        <v>6.9767441860465063</v>
+        <v>7.2791164658634537</v>
       </c>
       <c r="N768" s="4">
-        <v>150.80000000000001</v>
+        <v>178.5</v>
       </c>
       <c r="O768" s="10">
         <f t="shared" si="58"/>
-        <v>16.899999999999977</v>
+        <v>20.699999999999989</v>
       </c>
       <c r="P768" s="13">
         <f t="shared" si="59"/>
-        <v>10.077519379844949</v>
+        <v>10.391566265060236</v>
       </c>
     </row>
     <row r="769" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -42891,42 +42891,42 @@
         <v>36</v>
       </c>
       <c r="F769" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G769" s="3">
-        <v>199.2</v>
+        <v>161.1</v>
       </c>
       <c r="H769" s="4">
-        <v>191.6</v>
+        <v>152.19999999999999</v>
       </c>
       <c r="I769" s="9">
-        <v>7.6</v>
+        <v>8.9</v>
       </c>
       <c r="J769" s="12">
         <f t="shared" si="55"/>
-        <v>3.8152610441767072</v>
+        <v>5.524518932340162</v>
       </c>
       <c r="K769" s="4">
-        <v>184.7</v>
+        <v>144.1</v>
       </c>
       <c r="L769" s="10">
         <f t="shared" si="56"/>
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="M769" s="13">
         <f t="shared" si="57"/>
-        <v>7.2791164658634537</v>
+        <v>10.552451893234016</v>
       </c>
       <c r="N769" s="4">
-        <v>178.5</v>
+        <v>136.6</v>
       </c>
       <c r="O769" s="10">
         <f t="shared" si="58"/>
-        <v>20.699999999999989</v>
+        <v>24.5</v>
       </c>
       <c r="P769" s="13">
         <f t="shared" si="59"/>
-        <v>10.391566265060236</v>
+        <v>15.207945375543142</v>
       </c>
     </row>
     <row r="770" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -42946,42 +42946,42 @@
         <v>36</v>
       </c>
       <c r="F770" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G770" s="3">
-        <v>161.1</v>
+        <v>183.1</v>
       </c>
       <c r="H770" s="4">
-        <v>152.19999999999999</v>
+        <v>175.7</v>
       </c>
       <c r="I770" s="9">
-        <v>8.9</v>
+        <v>7.4</v>
       </c>
       <c r="J770" s="12">
-        <f t="shared" si="55"/>
-        <v>5.524518932340162</v>
+        <f t="shared" ref="J770:J833" si="60">I770/G770*100</f>
+        <v>4.0415073730202078</v>
       </c>
       <c r="K770" s="4">
-        <v>144.1</v>
+        <v>168.5</v>
       </c>
       <c r="L770" s="10">
-        <f t="shared" si="56"/>
-        <v>17</v>
+        <f t="shared" ref="L770:L783" si="61">G770-K770</f>
+        <v>14.599999999999994</v>
       </c>
       <c r="M770" s="13">
-        <f t="shared" si="57"/>
-        <v>10.552451893234016</v>
+        <f t="shared" ref="M770:M833" si="62">L770/G770*100</f>
+        <v>7.9737848170398671</v>
       </c>
       <c r="N770" s="4">
-        <v>136.6</v>
+        <v>162.1</v>
       </c>
       <c r="O770" s="10">
-        <f t="shared" si="58"/>
-        <v>24.5</v>
+        <f t="shared" ref="O770:O833" si="63">G770-N770</f>
+        <v>21</v>
       </c>
       <c r="P770" s="13">
-        <f t="shared" si="59"/>
-        <v>15.207945375543142</v>
+        <f t="shared" ref="P770:P833" si="64">O770/G770*100</f>
+        <v>11.469142545057347</v>
       </c>
     </row>
     <row r="771" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -43001,42 +43001,42 @@
         <v>36</v>
       </c>
       <c r="F771" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G771" s="3">
-        <v>183.1</v>
+        <v>180</v>
       </c>
       <c r="H771" s="4">
-        <v>175.7</v>
+        <v>173.9</v>
       </c>
       <c r="I771" s="9">
-        <v>7.4</v>
+        <v>6.1</v>
       </c>
       <c r="J771" s="12">
-        <f t="shared" ref="J771:J834" si="60">I771/G771*100</f>
-        <v>4.0415073730202078</v>
+        <f t="shared" si="60"/>
+        <v>3.3888888888888884</v>
       </c>
       <c r="K771" s="4">
-        <v>168.5</v>
+        <v>167.6</v>
       </c>
       <c r="L771" s="10">
-        <f t="shared" ref="L771:L784" si="61">G771-K771</f>
-        <v>14.599999999999994</v>
+        <f t="shared" si="61"/>
+        <v>12.400000000000006</v>
       </c>
       <c r="M771" s="13">
-        <f t="shared" ref="M771:M834" si="62">L771/G771*100</f>
-        <v>7.9737848170398671</v>
+        <f t="shared" si="62"/>
+        <v>6.8888888888888919</v>
       </c>
       <c r="N771" s="4">
-        <v>162.1</v>
+        <v>161.9</v>
       </c>
       <c r="O771" s="10">
-        <f t="shared" ref="O771:O834" si="63">G771-N771</f>
-        <v>21</v>
+        <f t="shared" si="63"/>
+        <v>18.099999999999994</v>
       </c>
       <c r="P771" s="13">
-        <f t="shared" ref="P771:P834" si="64">O771/G771*100</f>
-        <v>11.469142545057347</v>
+        <f t="shared" si="64"/>
+        <v>10.055555555555552</v>
       </c>
     </row>
     <row r="772" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -43056,42 +43056,42 @@
         <v>36</v>
       </c>
       <c r="F772" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G772" s="3">
-        <v>180</v>
+        <v>166.5</v>
       </c>
       <c r="H772" s="4">
-        <v>173.9</v>
+        <v>160.5</v>
       </c>
       <c r="I772" s="9">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="J772" s="12">
         <f t="shared" si="60"/>
-        <v>3.3888888888888884</v>
+        <v>3.6036036036036037</v>
       </c>
       <c r="K772" s="4">
-        <v>167.6</v>
+        <v>154.4</v>
       </c>
       <c r="L772" s="10">
         <f t="shared" si="61"/>
-        <v>12.400000000000006</v>
+        <v>12.099999999999994</v>
       </c>
       <c r="M772" s="13">
         <f t="shared" si="62"/>
-        <v>6.8888888888888919</v>
+        <v>7.2672672672672629</v>
       </c>
       <c r="N772" s="4">
-        <v>161.9</v>
+        <v>148.80000000000001</v>
       </c>
       <c r="O772" s="10">
         <f t="shared" si="63"/>
-        <v>18.099999999999994</v>
+        <v>17.699999999999989</v>
       </c>
       <c r="P772" s="13">
         <f t="shared" si="64"/>
-        <v>10.055555555555552</v>
+        <v>10.630630630630623</v>
       </c>
     </row>
     <row r="773" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -43111,42 +43111,42 @@
         <v>36</v>
       </c>
       <c r="F773" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G773" s="3">
-        <v>166.5</v>
+        <v>179.9</v>
       </c>
       <c r="H773" s="4">
-        <v>160.5</v>
+        <v>173.8</v>
       </c>
       <c r="I773" s="9">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="J773" s="12">
         <f t="shared" si="60"/>
-        <v>3.6036036036036037</v>
+        <v>3.3907726514730405</v>
       </c>
       <c r="K773" s="4">
-        <v>154.4</v>
+        <v>167.5</v>
       </c>
       <c r="L773" s="10">
         <f t="shared" si="61"/>
-        <v>12.099999999999994</v>
+        <v>12.400000000000006</v>
       </c>
       <c r="M773" s="13">
         <f t="shared" si="62"/>
-        <v>7.2672672672672629</v>
+        <v>6.8927181767648724</v>
       </c>
       <c r="N773" s="4">
-        <v>148.80000000000001</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="O773" s="10">
         <f t="shared" si="63"/>
-        <v>17.699999999999989</v>
+        <v>18.099999999999994</v>
       </c>
       <c r="P773" s="13">
         <f t="shared" si="64"/>
-        <v>10.630630630630623</v>
+        <v>10.06114508060033</v>
       </c>
     </row>
     <row r="774" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -43166,42 +43166,42 @@
         <v>36</v>
       </c>
       <c r="F774" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G774" s="3">
-        <v>179.9</v>
+        <v>186.8</v>
       </c>
       <c r="H774" s="4">
-        <v>173.8</v>
+        <v>178.3</v>
       </c>
       <c r="I774" s="9">
-        <v>6.1</v>
+        <v>8.5</v>
       </c>
       <c r="J774" s="12">
         <f t="shared" si="60"/>
-        <v>3.3907726514730405</v>
+        <v>4.5503211991434682</v>
       </c>
       <c r="K774" s="4">
-        <v>167.5</v>
+        <v>170.7</v>
       </c>
       <c r="L774" s="10">
         <f t="shared" si="61"/>
-        <v>12.400000000000006</v>
+        <v>16.100000000000023</v>
       </c>
       <c r="M774" s="13">
         <f t="shared" si="62"/>
-        <v>6.8927181767648724</v>
+        <v>8.618843683083524</v>
       </c>
       <c r="N774" s="4">
-        <v>161.80000000000001</v>
+        <v>163.5</v>
       </c>
       <c r="O774" s="10">
         <f t="shared" si="63"/>
-        <v>18.099999999999994</v>
+        <v>23.300000000000011</v>
       </c>
       <c r="P774" s="13">
         <f t="shared" si="64"/>
-        <v>10.06114508060033</v>
+        <v>12.473233404710927</v>
       </c>
     </row>
     <row r="775" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -43221,42 +43221,42 @@
         <v>36</v>
       </c>
       <c r="F775" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G775" s="3">
-        <v>186.8</v>
+        <v>219.4</v>
       </c>
       <c r="H775" s="4">
-        <v>178.3</v>
+        <v>208.5</v>
       </c>
       <c r="I775" s="9">
-        <v>8.5</v>
+        <v>10.9</v>
       </c>
       <c r="J775" s="12">
         <f t="shared" si="60"/>
-        <v>4.5503211991434682</v>
+        <v>4.9680948040109394</v>
       </c>
       <c r="K775" s="4">
-        <v>170.7</v>
+        <v>197.1</v>
       </c>
       <c r="L775" s="10">
         <f t="shared" si="61"/>
-        <v>16.100000000000023</v>
+        <v>22.300000000000011</v>
       </c>
       <c r="M775" s="13">
         <f t="shared" si="62"/>
-        <v>8.618843683083524</v>
+        <v>10.164083865086605</v>
       </c>
       <c r="N775" s="4">
-        <v>163.5</v>
+        <v>186.6</v>
       </c>
       <c r="O775" s="10">
         <f t="shared" si="63"/>
-        <v>23.300000000000011</v>
+        <v>32.800000000000011</v>
       </c>
       <c r="P775" s="13">
         <f t="shared" si="64"/>
-        <v>12.473233404710927</v>
+        <v>14.949863263445767</v>
       </c>
     </row>
     <row r="776" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -43276,42 +43276,42 @@
         <v>36</v>
       </c>
       <c r="F776" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G776" s="3">
-        <v>219.4</v>
+        <v>175.5</v>
       </c>
       <c r="H776" s="4">
-        <v>208.5</v>
+        <v>166.2</v>
       </c>
       <c r="I776" s="9">
-        <v>10.9</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J776" s="12">
         <f t="shared" si="60"/>
-        <v>4.9680948040109394</v>
+        <v>5.2991452991452999</v>
       </c>
       <c r="K776" s="4">
-        <v>197.1</v>
+        <v>158.69999999999999</v>
       </c>
       <c r="L776" s="10">
         <f t="shared" si="61"/>
-        <v>22.300000000000011</v>
+        <v>16.800000000000011</v>
       </c>
       <c r="M776" s="13">
         <f t="shared" si="62"/>
-        <v>10.164083865086605</v>
+        <v>9.5726495726495795</v>
       </c>
       <c r="N776" s="4">
-        <v>186.6</v>
+        <v>151.6</v>
       </c>
       <c r="O776" s="10">
         <f t="shared" si="63"/>
-        <v>32.800000000000011</v>
+        <v>23.900000000000006</v>
       </c>
       <c r="P776" s="13">
         <f t="shared" si="64"/>
-        <v>14.949863263445767</v>
+        <v>13.618233618233621</v>
       </c>
     </row>
     <row r="777" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -43331,42 +43331,42 @@
         <v>36</v>
       </c>
       <c r="F777" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G777" s="3">
-        <v>175.5</v>
+        <v>196.5</v>
       </c>
       <c r="H777" s="4">
-        <v>166.2</v>
+        <v>187.8</v>
       </c>
       <c r="I777" s="9">
-        <v>9.3000000000000007</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="J777" s="12">
         <f t="shared" si="60"/>
-        <v>5.2991452991452999</v>
+        <v>4.4274809160305333</v>
       </c>
       <c r="K777" s="4">
-        <v>158.69999999999999</v>
+        <v>180.2</v>
       </c>
       <c r="L777" s="10">
         <f t="shared" si="61"/>
-        <v>16.800000000000011</v>
+        <v>16.300000000000011</v>
       </c>
       <c r="M777" s="13">
         <f t="shared" si="62"/>
-        <v>9.5726495726495795</v>
+        <v>8.2951653944020425</v>
       </c>
       <c r="N777" s="4">
-        <v>151.6</v>
+        <v>173.4</v>
       </c>
       <c r="O777" s="10">
         <f t="shared" si="63"/>
-        <v>23.900000000000006</v>
+        <v>23.099999999999994</v>
       </c>
       <c r="P777" s="13">
         <f t="shared" si="64"/>
-        <v>13.618233618233621</v>
+        <v>11.755725190839691</v>
       </c>
     </row>
     <row r="778" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -43386,42 +43386,42 @@
         <v>36</v>
       </c>
       <c r="F778" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G778" s="3">
-        <v>196.5</v>
+        <v>176</v>
       </c>
       <c r="H778" s="4">
-        <v>187.8</v>
+        <v>170.5</v>
       </c>
       <c r="I778" s="9">
-        <v>8.6999999999999993</v>
+        <v>5.5</v>
       </c>
       <c r="J778" s="12">
         <f t="shared" si="60"/>
-        <v>4.4274809160305333</v>
+        <v>3.125</v>
       </c>
       <c r="K778" s="4">
-        <v>180.2</v>
+        <v>164.7</v>
       </c>
       <c r="L778" s="10">
         <f t="shared" si="61"/>
-        <v>16.300000000000011</v>
+        <v>11.300000000000011</v>
       </c>
       <c r="M778" s="13">
         <f t="shared" si="62"/>
-        <v>8.2951653944020425</v>
+        <v>6.4204545454545512</v>
       </c>
       <c r="N778" s="4">
-        <v>173.4</v>
+        <v>159.4</v>
       </c>
       <c r="O778" s="10">
         <f t="shared" si="63"/>
-        <v>23.099999999999994</v>
+        <v>16.599999999999994</v>
       </c>
       <c r="P778" s="13">
         <f t="shared" si="64"/>
-        <v>11.755725190839691</v>
+        <v>9.4318181818181781</v>
       </c>
     </row>
     <row r="779" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -43441,42 +43441,42 @@
         <v>36</v>
       </c>
       <c r="F779" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G779" s="3">
-        <v>176</v>
+        <v>227.2</v>
       </c>
       <c r="H779" s="4">
-        <v>170.5</v>
+        <v>219.6</v>
       </c>
       <c r="I779" s="9">
-        <v>5.5</v>
+        <v>7.6</v>
       </c>
       <c r="J779" s="12">
         <f t="shared" si="60"/>
-        <v>3.125</v>
+        <v>3.345070422535211</v>
       </c>
       <c r="K779" s="4">
-        <v>164.7</v>
+        <v>212.3</v>
       </c>
       <c r="L779" s="10">
         <f t="shared" si="61"/>
-        <v>11.300000000000011</v>
+        <v>14.899999999999977</v>
       </c>
       <c r="M779" s="13">
         <f t="shared" si="62"/>
-        <v>6.4204545454545512</v>
+        <v>6.5580985915492853</v>
       </c>
       <c r="N779" s="4">
-        <v>159.4</v>
+        <v>205.7</v>
       </c>
       <c r="O779" s="10">
         <f t="shared" si="63"/>
-        <v>16.599999999999994</v>
+        <v>21.5</v>
       </c>
       <c r="P779" s="13">
         <f t="shared" si="64"/>
-        <v>9.4318181818181781</v>
+        <v>9.4630281690140841</v>
       </c>
     </row>
     <row r="780" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -43496,42 +43496,42 @@
         <v>36</v>
       </c>
       <c r="F780" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G780" s="3">
-        <v>227.2</v>
+        <v>183.3</v>
       </c>
       <c r="H780" s="4">
-        <v>219.6</v>
+        <v>175.5</v>
       </c>
       <c r="I780" s="9">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J780" s="12">
         <f t="shared" si="60"/>
-        <v>3.345070422535211</v>
+        <v>4.2553191489361701</v>
       </c>
       <c r="K780" s="4">
-        <v>212.3</v>
+        <v>168.1</v>
       </c>
       <c r="L780" s="10">
         <f t="shared" si="61"/>
-        <v>14.899999999999977</v>
+        <v>15.200000000000017</v>
       </c>
       <c r="M780" s="13">
         <f t="shared" si="62"/>
-        <v>6.5580985915492853</v>
+        <v>8.2924168030551098</v>
       </c>
       <c r="N780" s="4">
-        <v>205.7</v>
+        <v>161.5</v>
       </c>
       <c r="O780" s="10">
         <f t="shared" si="63"/>
-        <v>21.5</v>
+        <v>21.800000000000011</v>
       </c>
       <c r="P780" s="13">
         <f t="shared" si="64"/>
-        <v>9.4630281690140841</v>
+        <v>11.893071467539558</v>
       </c>
     </row>
     <row r="781" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -43539,54 +43539,54 @@
         <v>29</v>
       </c>
       <c r="B781" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C781" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D781" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E781" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F781" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G781" s="3">
-        <v>183.3</v>
+        <v>183.4</v>
       </c>
       <c r="H781" s="4">
-        <v>175.5</v>
+        <v>165.9</v>
       </c>
       <c r="I781" s="9">
-        <v>7.8</v>
+        <v>17.5</v>
       </c>
       <c r="J781" s="12">
         <f t="shared" si="60"/>
-        <v>4.2553191489361701</v>
+        <v>9.5419847328244263</v>
       </c>
       <c r="K781" s="4">
-        <v>168.1</v>
+        <v>158</v>
       </c>
       <c r="L781" s="10">
         <f t="shared" si="61"/>
-        <v>15.200000000000017</v>
+        <v>25.400000000000006</v>
       </c>
       <c r="M781" s="13">
         <f t="shared" si="62"/>
-        <v>8.2924168030551098</v>
+        <v>13.8495092693566</v>
       </c>
       <c r="N781" s="4">
-        <v>161.5</v>
+        <v>151.4</v>
       </c>
       <c r="O781" s="10">
         <f t="shared" si="63"/>
-        <v>21.800000000000011</v>
+        <v>32</v>
       </c>
       <c r="P781" s="13">
         <f t="shared" si="64"/>
-        <v>11.893071467539558</v>
+        <v>17.448200654307524</v>
       </c>
     </row>
     <row r="782" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -43606,42 +43606,42 @@
         <v>33</v>
       </c>
       <c r="F782" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G782" s="3">
-        <v>183.4</v>
+        <v>201.1</v>
       </c>
       <c r="H782" s="4">
-        <v>165.9</v>
+        <v>182.1</v>
       </c>
       <c r="I782" s="9">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="J782" s="12">
         <f t="shared" si="60"/>
-        <v>9.5419847328244263</v>
+        <v>9.4480358030830445</v>
       </c>
       <c r="K782" s="4">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="L782" s="10">
         <f t="shared" si="61"/>
-        <v>25.400000000000006</v>
+        <v>29.099999999999994</v>
       </c>
       <c r="M782" s="13">
         <f t="shared" si="62"/>
-        <v>13.8495092693566</v>
+        <v>14.47041272998508</v>
       </c>
       <c r="N782" s="4">
-        <v>151.4</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="O782" s="10">
         <f t="shared" si="63"/>
-        <v>32</v>
+        <v>37.799999999999983</v>
       </c>
       <c r="P782" s="13">
         <f t="shared" si="64"/>
-        <v>17.448200654307524</v>
+        <v>18.796618597712573</v>
       </c>
     </row>
     <row r="783" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -43661,42 +43661,42 @@
         <v>33</v>
       </c>
       <c r="F783" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G783" s="3">
-        <v>201.1</v>
+        <v>233.7</v>
       </c>
       <c r="H783" s="4">
-        <v>182.1</v>
+        <v>213.2</v>
       </c>
       <c r="I783" s="9">
-        <v>19</v>
+        <v>20.5</v>
       </c>
       <c r="J783" s="12">
         <f t="shared" si="60"/>
-        <v>9.4480358030830445</v>
+        <v>8.7719298245614041</v>
       </c>
       <c r="K783" s="4">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="L783" s="10">
         <f t="shared" si="61"/>
-        <v>29.099999999999994</v>
+        <v>30.699999999999989</v>
       </c>
       <c r="M783" s="13">
         <f t="shared" si="62"/>
-        <v>14.47041272998508</v>
+        <v>13.136499786050488</v>
       </c>
       <c r="N783" s="4">
-        <v>163.30000000000001</v>
+        <v>194.4</v>
       </c>
       <c r="O783" s="10">
         <f t="shared" si="63"/>
-        <v>37.799999999999983</v>
+        <v>39.299999999999983</v>
       </c>
       <c r="P783" s="13">
         <f t="shared" si="64"/>
-        <v>18.796618597712573</v>
+        <v>16.816431322207954</v>
       </c>
     </row>
     <row r="784" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -43716,42 +43716,42 @@
         <v>33</v>
       </c>
       <c r="F784" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G784" s="3">
-        <v>233.7</v>
+        <v>188.1</v>
       </c>
       <c r="H784" s="4">
-        <v>213.2</v>
+        <v>174.1</v>
       </c>
       <c r="I784" s="9">
-        <v>20.5</v>
+        <v>14</v>
       </c>
       <c r="J784" s="12">
         <f t="shared" si="60"/>
-        <v>8.7719298245614041</v>
+        <v>7.4428495481127062</v>
       </c>
       <c r="K784" s="4">
-        <v>203</v>
+        <v>167.3</v>
       </c>
       <c r="L784" s="10">
-        <f t="shared" si="61"/>
-        <v>30.699999999999989</v>
+        <f>G784-K784</f>
+        <v>20.799999999999983</v>
       </c>
       <c r="M784" s="13">
         <f t="shared" si="62"/>
-        <v>13.136499786050488</v>
+        <v>11.057947900053154</v>
       </c>
       <c r="N784" s="4">
-        <v>194.4</v>
+        <v>161.5</v>
       </c>
       <c r="O784" s="10">
         <f t="shared" si="63"/>
-        <v>39.299999999999983</v>
+        <v>26.599999999999994</v>
       </c>
       <c r="P784" s="13">
         <f t="shared" si="64"/>
-        <v>16.816431322207954</v>
+        <v>14.141414141414138</v>
       </c>
     </row>
     <row r="785" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -43771,42 +43771,42 @@
         <v>33</v>
       </c>
       <c r="F785" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G785" s="3">
-        <v>188.1</v>
+        <v>165.6</v>
       </c>
       <c r="H785" s="4">
-        <v>174.1</v>
+        <v>154.30000000000001</v>
       </c>
       <c r="I785" s="9">
-        <v>14</v>
+        <v>11.3</v>
       </c>
       <c r="J785" s="12">
         <f t="shared" si="60"/>
-        <v>7.4428495481127062</v>
+        <v>6.8236714975845425</v>
       </c>
       <c r="K785" s="4">
-        <v>167.3</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="L785" s="10">
-        <f>G785-K785</f>
-        <v>20.799999999999983</v>
+        <f t="shared" ref="L785:L848" si="65">G785-K785</f>
+        <v>16.299999999999983</v>
       </c>
       <c r="M785" s="13">
         <f t="shared" si="62"/>
-        <v>11.057947900053154</v>
+        <v>9.8429951690821156</v>
       </c>
       <c r="N785" s="4">
-        <v>161.5</v>
+        <v>145.1</v>
       </c>
       <c r="O785" s="10">
         <f t="shared" si="63"/>
-        <v>26.599999999999994</v>
+        <v>20.5</v>
       </c>
       <c r="P785" s="13">
         <f t="shared" si="64"/>
-        <v>14.141414141414138</v>
+        <v>12.379227053140097</v>
       </c>
     </row>
     <row r="786" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -43826,42 +43826,42 @@
         <v>33</v>
       </c>
       <c r="F786" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G786" s="3">
-        <v>165.6</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="H786" s="4">
-        <v>154.30000000000001</v>
+        <v>137.9</v>
       </c>
       <c r="I786" s="9">
-        <v>11.3</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="J786" s="12">
         <f t="shared" si="60"/>
-        <v>6.8236714975845425</v>
+        <v>11.204121056020604</v>
       </c>
       <c r="K786" s="4">
-        <v>149.30000000000001</v>
+        <v>130.5</v>
       </c>
       <c r="L786" s="10">
-        <f t="shared" ref="L786:L849" si="65">G786-K786</f>
-        <v>16.299999999999983</v>
+        <f t="shared" si="65"/>
+        <v>24.800000000000011</v>
       </c>
       <c r="M786" s="13">
         <f t="shared" si="62"/>
-        <v>9.8429951690821156</v>
+        <v>15.969092079845467</v>
       </c>
       <c r="N786" s="4">
-        <v>145.1</v>
+        <v>124.5</v>
       </c>
       <c r="O786" s="10">
         <f t="shared" si="63"/>
-        <v>20.5</v>
+        <v>30.800000000000011</v>
       </c>
       <c r="P786" s="13">
         <f t="shared" si="64"/>
-        <v>12.379227053140097</v>
+        <v>19.832582099162916</v>
       </c>
     </row>
     <row r="787" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -43881,42 +43881,42 @@
         <v>33</v>
       </c>
       <c r="F787" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G787" s="3">
-        <v>155.30000000000001</v>
+        <v>189.3</v>
       </c>
       <c r="H787" s="4">
-        <v>137.9</v>
+        <v>172.5</v>
       </c>
       <c r="I787" s="9">
-        <v>17.399999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="J787" s="12">
         <f t="shared" si="60"/>
-        <v>11.204121056020604</v>
+        <v>8.8748019017432647</v>
       </c>
       <c r="K787" s="4">
-        <v>130.5</v>
+        <v>163.6</v>
       </c>
       <c r="L787" s="10">
         <f t="shared" si="65"/>
-        <v>24.800000000000011</v>
+        <v>25.700000000000017</v>
       </c>
       <c r="M787" s="13">
         <f t="shared" si="62"/>
-        <v>15.969092079845467</v>
+        <v>13.57633386159536</v>
       </c>
       <c r="N787" s="4">
-        <v>124.5</v>
+        <v>156.19999999999999</v>
       </c>
       <c r="O787" s="10">
         <f t="shared" si="63"/>
-        <v>30.800000000000011</v>
+        <v>33.100000000000023</v>
       </c>
       <c r="P787" s="13">
         <f t="shared" si="64"/>
-        <v>19.832582099162916</v>
+        <v>17.485472794506084</v>
       </c>
     </row>
     <row r="788" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -43936,42 +43936,42 @@
         <v>33</v>
       </c>
       <c r="F788" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G788" s="3">
-        <v>189.3</v>
+        <v>206.5</v>
       </c>
       <c r="H788" s="4">
-        <v>172.5</v>
+        <v>182.3</v>
       </c>
       <c r="I788" s="9">
-        <v>16.8</v>
+        <v>24.2</v>
       </c>
       <c r="J788" s="12">
         <f t="shared" si="60"/>
-        <v>8.8748019017432647</v>
+        <v>11.719128329297821</v>
       </c>
       <c r="K788" s="4">
-        <v>163.6</v>
+        <v>171.5</v>
       </c>
       <c r="L788" s="10">
         <f t="shared" si="65"/>
-        <v>25.700000000000017</v>
+        <v>35</v>
       </c>
       <c r="M788" s="13">
         <f t="shared" si="62"/>
-        <v>13.57633386159536</v>
+        <v>16.949152542372879</v>
       </c>
       <c r="N788" s="4">
-        <v>156.19999999999999</v>
+        <v>162.9</v>
       </c>
       <c r="O788" s="10">
         <f t="shared" si="63"/>
-        <v>33.100000000000023</v>
+        <v>43.599999999999994</v>
       </c>
       <c r="P788" s="13">
         <f t="shared" si="64"/>
-        <v>17.485472794506084</v>
+        <v>21.1138014527845</v>
       </c>
     </row>
     <row r="789" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -43991,42 +43991,42 @@
         <v>33</v>
       </c>
       <c r="F789" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G789" s="3">
-        <v>206.5</v>
+        <v>168.9</v>
       </c>
       <c r="H789" s="4">
-        <v>182.3</v>
+        <v>155.19999999999999</v>
       </c>
       <c r="I789" s="9">
-        <v>24.2</v>
+        <v>13.7</v>
       </c>
       <c r="J789" s="12">
         <f t="shared" si="60"/>
-        <v>11.719128329297821</v>
+        <v>8.1113084665482535</v>
       </c>
       <c r="K789" s="4">
-        <v>171.5</v>
+        <v>147.6</v>
       </c>
       <c r="L789" s="10">
         <f t="shared" si="65"/>
-        <v>35</v>
+        <v>21.300000000000011</v>
       </c>
       <c r="M789" s="13">
         <f t="shared" si="62"/>
-        <v>16.949152542372879</v>
+        <v>12.611012433392546</v>
       </c>
       <c r="N789" s="4">
-        <v>162.9</v>
+        <v>140.9</v>
       </c>
       <c r="O789" s="10">
         <f t="shared" si="63"/>
-        <v>43.599999999999994</v>
+        <v>28</v>
       </c>
       <c r="P789" s="13">
         <f t="shared" si="64"/>
-        <v>21.1138014527845</v>
+        <v>16.577856719952631</v>
       </c>
     </row>
     <row r="790" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -44046,42 +44046,42 @@
         <v>33</v>
       </c>
       <c r="F790" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G790" s="3">
-        <v>168.9</v>
+        <v>144.5</v>
       </c>
       <c r="H790" s="4">
-        <v>155.19999999999999</v>
+        <v>132.5</v>
       </c>
       <c r="I790" s="9">
-        <v>13.7</v>
+        <v>12</v>
       </c>
       <c r="J790" s="12">
         <f t="shared" si="60"/>
-        <v>8.1113084665482535</v>
+        <v>8.3044982698961931</v>
       </c>
       <c r="K790" s="4">
-        <v>147.6</v>
+        <v>127.3</v>
       </c>
       <c r="L790" s="10">
         <f t="shared" si="65"/>
-        <v>21.300000000000011</v>
+        <v>17.200000000000003</v>
       </c>
       <c r="M790" s="13">
         <f t="shared" si="62"/>
-        <v>12.611012433392546</v>
+        <v>11.903114186851212</v>
       </c>
       <c r="N790" s="4">
-        <v>140.9</v>
+        <v>122.3</v>
       </c>
       <c r="O790" s="10">
         <f t="shared" si="63"/>
-        <v>28</v>
+        <v>22.200000000000003</v>
       </c>
       <c r="P790" s="13">
         <f t="shared" si="64"/>
-        <v>16.577856719952631</v>
+        <v>15.363321799307961</v>
       </c>
     </row>
     <row r="791" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -44101,42 +44101,42 @@
         <v>33</v>
       </c>
       <c r="F791" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G791" s="3">
-        <v>144.5</v>
+        <v>187.3</v>
       </c>
       <c r="H791" s="4">
-        <v>132.5</v>
+        <v>171.4</v>
       </c>
       <c r="I791" s="9">
-        <v>12</v>
+        <v>15.9</v>
       </c>
       <c r="J791" s="12">
         <f t="shared" si="60"/>
-        <v>8.3044982698961931</v>
+        <v>8.4890549919914573</v>
       </c>
       <c r="K791" s="4">
-        <v>127.3</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="L791" s="10">
         <f t="shared" si="65"/>
-        <v>17.200000000000003</v>
+        <v>24</v>
       </c>
       <c r="M791" s="13">
         <f t="shared" si="62"/>
-        <v>11.903114186851212</v>
+        <v>12.813667912439936</v>
       </c>
       <c r="N791" s="4">
-        <v>122.3</v>
+        <v>156.6</v>
       </c>
       <c r="O791" s="10">
         <f t="shared" si="63"/>
-        <v>22.200000000000003</v>
+        <v>30.700000000000017</v>
       </c>
       <c r="P791" s="13">
         <f t="shared" si="64"/>
-        <v>15.363321799307961</v>
+        <v>16.390816871329424</v>
       </c>
     </row>
     <row r="792" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -44156,42 +44156,42 @@
         <v>33</v>
       </c>
       <c r="F792" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G792" s="3">
-        <v>187.3</v>
+        <v>182.4</v>
       </c>
       <c r="H792" s="4">
-        <v>171.4</v>
+        <v>168</v>
       </c>
       <c r="I792" s="9">
-        <v>15.9</v>
+        <v>14.4</v>
       </c>
       <c r="J792" s="12">
         <f t="shared" si="60"/>
-        <v>8.4890549919914573</v>
+        <v>7.8947368421052628</v>
       </c>
       <c r="K792" s="4">
-        <v>163.30000000000001</v>
+        <v>159.6</v>
       </c>
       <c r="L792" s="10">
         <f t="shared" si="65"/>
-        <v>24</v>
+        <v>22.800000000000011</v>
       </c>
       <c r="M792" s="13">
         <f t="shared" si="62"/>
-        <v>12.813667912439936</v>
+        <v>12.500000000000005</v>
       </c>
       <c r="N792" s="4">
-        <v>156.6</v>
+        <v>152.9</v>
       </c>
       <c r="O792" s="10">
         <f t="shared" si="63"/>
-        <v>30.700000000000017</v>
+        <v>29.5</v>
       </c>
       <c r="P792" s="13">
         <f t="shared" si="64"/>
-        <v>16.390816871329424</v>
+        <v>16.173245614035086</v>
       </c>
     </row>
     <row r="793" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -44211,42 +44211,42 @@
         <v>33</v>
       </c>
       <c r="F793" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G793" s="3">
-        <v>182.4</v>
+        <v>179.8</v>
       </c>
       <c r="H793" s="4">
-        <v>168</v>
+        <v>162.19999999999999</v>
       </c>
       <c r="I793" s="9">
-        <v>14.4</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="J793" s="12">
         <f t="shared" si="60"/>
-        <v>7.8947368421052628</v>
+        <v>9.788654060066742</v>
       </c>
       <c r="K793" s="4">
-        <v>159.6</v>
+        <v>152.9</v>
       </c>
       <c r="L793" s="10">
         <f t="shared" si="65"/>
-        <v>22.800000000000011</v>
+        <v>26.900000000000006</v>
       </c>
       <c r="M793" s="13">
         <f t="shared" si="62"/>
-        <v>12.500000000000005</v>
+        <v>14.96106785317019</v>
       </c>
       <c r="N793" s="4">
-        <v>152.9</v>
+        <v>146.19999999999999</v>
       </c>
       <c r="O793" s="10">
         <f t="shared" si="63"/>
-        <v>29.5</v>
+        <v>33.600000000000023</v>
       </c>
       <c r="P793" s="13">
         <f t="shared" si="64"/>
-        <v>16.173245614035086</v>
+        <v>18.687430478309246</v>
       </c>
     </row>
     <row r="794" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -44266,42 +44266,42 @@
         <v>33</v>
       </c>
       <c r="F794" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G794" s="3">
-        <v>179.8</v>
+        <v>207.4</v>
       </c>
       <c r="H794" s="4">
-        <v>162.19999999999999</v>
+        <v>189.4</v>
       </c>
       <c r="I794" s="9">
-        <v>17.600000000000001</v>
+        <v>18</v>
       </c>
       <c r="J794" s="12">
         <f t="shared" si="60"/>
-        <v>9.788654060066742</v>
+        <v>8.6788813886210221</v>
       </c>
       <c r="K794" s="4">
-        <v>152.9</v>
+        <v>180</v>
       </c>
       <c r="L794" s="10">
         <f t="shared" si="65"/>
-        <v>26.900000000000006</v>
+        <v>27.400000000000006</v>
       </c>
       <c r="M794" s="13">
         <f t="shared" si="62"/>
-        <v>14.96106785317019</v>
+        <v>13.211186113789781</v>
       </c>
       <c r="N794" s="4">
-        <v>146.19999999999999</v>
+        <v>172.8</v>
       </c>
       <c r="O794" s="10">
         <f t="shared" si="63"/>
-        <v>33.600000000000023</v>
+        <v>34.599999999999994</v>
       </c>
       <c r="P794" s="13">
         <f t="shared" si="64"/>
-        <v>18.687430478309246</v>
+        <v>16.682738669238184</v>
       </c>
     </row>
     <row r="795" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -44321,42 +44321,42 @@
         <v>33</v>
       </c>
       <c r="F795" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G795" s="3">
-        <v>207.4</v>
+        <v>198.5</v>
       </c>
       <c r="H795" s="4">
-        <v>189.4</v>
+        <v>182.4</v>
       </c>
       <c r="I795" s="9">
-        <v>18</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="J795" s="12">
         <f t="shared" si="60"/>
-        <v>8.6788813886210221</v>
+        <v>8.1108312342569278</v>
       </c>
       <c r="K795" s="4">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L795" s="10">
         <f t="shared" si="65"/>
-        <v>27.400000000000006</v>
+        <v>24.5</v>
       </c>
       <c r="M795" s="13">
         <f t="shared" si="62"/>
-        <v>13.211186113789781</v>
+        <v>12.342569269521411</v>
       </c>
       <c r="N795" s="4">
-        <v>172.8</v>
+        <v>167.4</v>
       </c>
       <c r="O795" s="10">
         <f t="shared" si="63"/>
-        <v>34.599999999999994</v>
+        <v>31.099999999999994</v>
       </c>
       <c r="P795" s="13">
         <f t="shared" si="64"/>
-        <v>16.682738669238184</v>
+        <v>15.667506297229217</v>
       </c>
     </row>
     <row r="796" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -44367,51 +44367,51 @@
         <v>4</v>
       </c>
       <c r="C796" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D796" s="3">
         <v>1</v>
       </c>
       <c r="E796" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F796" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G796" s="3">
-        <v>198.5</v>
+        <v>192.7</v>
       </c>
       <c r="H796" s="4">
-        <v>182.4</v>
+        <v>175.7</v>
       </c>
       <c r="I796" s="9">
-        <v>16.100000000000001</v>
+        <v>17</v>
       </c>
       <c r="J796" s="12">
         <f t="shared" si="60"/>
-        <v>8.1108312342569278</v>
+        <v>8.822003113648158</v>
       </c>
       <c r="K796" s="4">
-        <v>174</v>
+        <v>171.2</v>
       </c>
       <c r="L796" s="10">
         <f t="shared" si="65"/>
-        <v>24.5</v>
+        <v>21.5</v>
       </c>
       <c r="M796" s="13">
         <f t="shared" si="62"/>
-        <v>12.342569269521411</v>
+        <v>11.157239231966788</v>
       </c>
       <c r="N796" s="4">
-        <v>167.4</v>
+        <v>165</v>
       </c>
       <c r="O796" s="10">
         <f t="shared" si="63"/>
-        <v>31.099999999999994</v>
+        <v>27.699999999999989</v>
       </c>
       <c r="P796" s="13">
         <f t="shared" si="64"/>
-        <v>15.667506297229217</v>
+        <v>14.37467566165023</v>
       </c>
     </row>
     <row r="797" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -44431,42 +44431,42 @@
         <v>35</v>
       </c>
       <c r="F797" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G797" s="3">
-        <v>192.7</v>
+        <v>191.5</v>
       </c>
       <c r="H797" s="4">
-        <v>175.7</v>
+        <v>178.5</v>
       </c>
       <c r="I797" s="9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J797" s="12">
         <f t="shared" si="60"/>
-        <v>8.822003113648158</v>
+        <v>6.7885117493472595</v>
       </c>
       <c r="K797" s="4">
-        <v>171.2</v>
+        <v>175</v>
       </c>
       <c r="L797" s="10">
         <f t="shared" si="65"/>
-        <v>21.5</v>
+        <v>16.5</v>
       </c>
       <c r="M797" s="13">
         <f t="shared" si="62"/>
-        <v>11.157239231966788</v>
+        <v>8.6161879895561366</v>
       </c>
       <c r="N797" s="4">
-        <v>165</v>
+        <v>169.6</v>
       </c>
       <c r="O797" s="10">
         <f t="shared" si="63"/>
-        <v>27.699999999999989</v>
+        <v>21.900000000000006</v>
       </c>
       <c r="P797" s="13">
         <f t="shared" si="64"/>
-        <v>14.37467566165023</v>
+        <v>11.436031331592693</v>
       </c>
     </row>
     <row r="798" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -44486,42 +44486,42 @@
         <v>35</v>
       </c>
       <c r="F798" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G798" s="3">
-        <v>191.5</v>
+        <v>193.3</v>
       </c>
       <c r="H798" s="4">
-        <v>178.5</v>
+        <v>178.7</v>
       </c>
       <c r="I798" s="9">
-        <v>13</v>
+        <v>14.6</v>
       </c>
       <c r="J798" s="12">
         <f t="shared" si="60"/>
-        <v>6.7885117493472595</v>
+        <v>7.5530263838592848</v>
       </c>
       <c r="K798" s="4">
-        <v>175</v>
+        <v>174.8</v>
       </c>
       <c r="L798" s="10">
         <f t="shared" si="65"/>
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="M798" s="13">
         <f t="shared" si="62"/>
-        <v>8.6161879895561366</v>
+        <v>9.5706156233833415</v>
       </c>
       <c r="N798" s="4">
-        <v>169.6</v>
+        <v>169.3</v>
       </c>
       <c r="O798" s="10">
         <f t="shared" si="63"/>
-        <v>21.900000000000006</v>
+        <v>24</v>
       </c>
       <c r="P798" s="13">
         <f t="shared" si="64"/>
-        <v>11.436031331592693</v>
+        <v>12.415933781686498</v>
       </c>
     </row>
     <row r="799" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -44541,42 +44541,42 @@
         <v>35</v>
       </c>
       <c r="F799" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G799" s="3">
-        <v>193.3</v>
+        <v>168.7</v>
       </c>
       <c r="H799" s="4">
-        <v>178.7</v>
+        <v>154.1</v>
       </c>
       <c r="I799" s="9">
         <v>14.6</v>
       </c>
       <c r="J799" s="12">
         <f t="shared" si="60"/>
-        <v>7.5530263838592848</v>
+        <v>8.6544161232957908</v>
       </c>
       <c r="K799" s="4">
-        <v>174.8</v>
+        <v>149.5</v>
       </c>
       <c r="L799" s="10">
         <f t="shared" si="65"/>
-        <v>18.5</v>
+        <v>19.199999999999989</v>
       </c>
       <c r="M799" s="13">
         <f t="shared" si="62"/>
-        <v>9.5706156233833415</v>
+        <v>11.381149970361584</v>
       </c>
       <c r="N799" s="4">
-        <v>169.3</v>
+        <v>143.5</v>
       </c>
       <c r="O799" s="10">
         <f t="shared" si="63"/>
-        <v>24</v>
+        <v>25.199999999999989</v>
       </c>
       <c r="P799" s="13">
         <f t="shared" si="64"/>
-        <v>12.415933781686498</v>
+        <v>14.93775933609958</v>
       </c>
     </row>
     <row r="800" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -44596,42 +44596,42 @@
         <v>35</v>
       </c>
       <c r="F800" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G800" s="3">
-        <v>168.7</v>
+        <v>172.4</v>
       </c>
       <c r="H800" s="4">
-        <v>154.1</v>
+        <v>160.1</v>
       </c>
       <c r="I800" s="9">
-        <v>14.6</v>
+        <v>12.3</v>
       </c>
       <c r="J800" s="12">
         <f t="shared" si="60"/>
-        <v>8.6544161232957908</v>
+        <v>7.1345707656612536</v>
       </c>
       <c r="K800" s="4">
-        <v>149.5</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="L800" s="10">
         <f t="shared" si="65"/>
-        <v>19.199999999999989</v>
+        <v>16.099999999999994</v>
       </c>
       <c r="M800" s="13">
         <f t="shared" si="62"/>
-        <v>11.381149970361584</v>
+        <v>9.3387470997679767</v>
       </c>
       <c r="N800" s="4">
-        <v>143.5</v>
+        <v>150.69999999999999</v>
       </c>
       <c r="O800" s="10">
         <f t="shared" si="63"/>
-        <v>25.199999999999989</v>
+        <v>21.700000000000017</v>
       </c>
       <c r="P800" s="13">
         <f t="shared" si="64"/>
-        <v>14.93775933609958</v>
+        <v>12.587006960556854</v>
       </c>
     </row>
     <row r="801" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -44651,42 +44651,42 @@
         <v>35</v>
       </c>
       <c r="F801" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G801" s="3">
-        <v>172.4</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="H801" s="4">
-        <v>160.1</v>
+        <v>136</v>
       </c>
       <c r="I801" s="9">
         <v>12.3</v>
       </c>
       <c r="J801" s="12">
         <f t="shared" si="60"/>
-        <v>7.1345707656612536</v>
+        <v>8.2939986513823332</v>
       </c>
       <c r="K801" s="4">
-        <v>156.30000000000001</v>
+        <v>132.1</v>
       </c>
       <c r="L801" s="10">
         <f t="shared" si="65"/>
-        <v>16.099999999999994</v>
+        <v>16.200000000000017</v>
       </c>
       <c r="M801" s="13">
         <f t="shared" si="62"/>
-        <v>9.3387470997679767</v>
+        <v>10.923803101820646</v>
       </c>
       <c r="N801" s="4">
-        <v>150.69999999999999</v>
+        <v>127.2</v>
       </c>
       <c r="O801" s="10">
         <f t="shared" si="63"/>
-        <v>21.700000000000017</v>
+        <v>21.100000000000009</v>
       </c>
       <c r="P801" s="13">
         <f t="shared" si="64"/>
-        <v>12.587006960556854</v>
+        <v>14.227916385704658</v>
       </c>
     </row>
     <row r="802" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -44706,42 +44706,42 @@
         <v>35</v>
       </c>
       <c r="F802" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G802" s="3">
-        <v>148.30000000000001</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="H802" s="4">
-        <v>136</v>
+        <v>148.6</v>
       </c>
       <c r="I802" s="9">
-        <v>12.3</v>
+        <v>11.2</v>
       </c>
       <c r="J802" s="12">
         <f t="shared" si="60"/>
-        <v>8.2939986513823332</v>
+        <v>7.0087609511889859</v>
       </c>
       <c r="K802" s="4">
-        <v>132.1</v>
+        <v>144.9</v>
       </c>
       <c r="L802" s="10">
         <f t="shared" si="65"/>
-        <v>16.200000000000017</v>
+        <v>14.900000000000006</v>
       </c>
       <c r="M802" s="13">
         <f t="shared" si="62"/>
-        <v>10.923803101820646</v>
+        <v>9.3241551939924943</v>
       </c>
       <c r="N802" s="4">
-        <v>127.2</v>
+        <v>139.5</v>
       </c>
       <c r="O802" s="10">
         <f t="shared" si="63"/>
-        <v>21.100000000000009</v>
+        <v>20.300000000000011</v>
       </c>
       <c r="P802" s="13">
         <f t="shared" si="64"/>
-        <v>14.227916385704658</v>
+        <v>12.703379224030042</v>
       </c>
     </row>
     <row r="803" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -44761,42 +44761,42 @@
         <v>35</v>
       </c>
       <c r="F803" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G803" s="3">
-        <v>159.80000000000001</v>
+        <v>201.3</v>
       </c>
       <c r="H803" s="4">
-        <v>148.6</v>
+        <v>185.1</v>
       </c>
       <c r="I803" s="9">
-        <v>11.2</v>
+        <v>16.2</v>
       </c>
       <c r="J803" s="12">
         <f t="shared" si="60"/>
-        <v>7.0087609511889859</v>
+        <v>8.0476900149031287</v>
       </c>
       <c r="K803" s="4">
-        <v>144.9</v>
+        <v>180.5</v>
       </c>
       <c r="L803" s="10">
         <f t="shared" si="65"/>
-        <v>14.900000000000006</v>
+        <v>20.800000000000011</v>
       </c>
       <c r="M803" s="13">
         <f t="shared" si="62"/>
-        <v>9.3241551939924943</v>
+        <v>10.332836562344765</v>
       </c>
       <c r="N803" s="4">
-        <v>139.5</v>
+        <v>174.5</v>
       </c>
       <c r="O803" s="10">
         <f t="shared" si="63"/>
-        <v>20.300000000000011</v>
+        <v>26.800000000000011</v>
       </c>
       <c r="P803" s="13">
         <f t="shared" si="64"/>
-        <v>12.703379224030042</v>
+        <v>13.313462493790368</v>
       </c>
     </row>
     <row r="804" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -44816,42 +44816,42 @@
         <v>35</v>
       </c>
       <c r="F804" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G804" s="3">
-        <v>201.3</v>
+        <v>181.3</v>
       </c>
       <c r="H804" s="4">
-        <v>185.1</v>
+        <v>164.4</v>
       </c>
       <c r="I804" s="9">
-        <v>16.2</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="J804" s="12">
         <f t="shared" si="60"/>
-        <v>8.0476900149031287</v>
+        <v>9.321566464423606</v>
       </c>
       <c r="K804" s="4">
-        <v>180.5</v>
+        <v>159.69999999999999</v>
       </c>
       <c r="L804" s="10">
         <f t="shared" si="65"/>
-        <v>20.800000000000011</v>
+        <v>21.600000000000023</v>
       </c>
       <c r="M804" s="13">
         <f t="shared" si="62"/>
-        <v>10.332836562344765</v>
+        <v>11.913954771097639</v>
       </c>
       <c r="N804" s="4">
-        <v>174.5</v>
+        <v>153.1</v>
       </c>
       <c r="O804" s="10">
         <f t="shared" si="63"/>
-        <v>26.800000000000011</v>
+        <v>28.200000000000017</v>
       </c>
       <c r="P804" s="13">
         <f t="shared" si="64"/>
-        <v>13.313462493790368</v>
+        <v>15.554329840044135</v>
       </c>
     </row>
     <row r="805" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -44871,42 +44871,42 @@
         <v>35</v>
       </c>
       <c r="F805" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G805" s="3">
-        <v>181.3</v>
+        <v>168.3</v>
       </c>
       <c r="H805" s="4">
-        <v>164.4</v>
+        <v>152.9</v>
       </c>
       <c r="I805" s="9">
-        <v>16.899999999999999</v>
+        <v>15.4</v>
       </c>
       <c r="J805" s="12">
         <f t="shared" si="60"/>
-        <v>9.321566464423606</v>
+        <v>9.1503267973856204</v>
       </c>
       <c r="K805" s="4">
-        <v>159.69999999999999</v>
+        <v>148.19999999999999</v>
       </c>
       <c r="L805" s="10">
         <f t="shared" si="65"/>
-        <v>21.600000000000023</v>
+        <v>20.100000000000023</v>
       </c>
       <c r="M805" s="13">
         <f t="shared" si="62"/>
-        <v>11.913954771097639</v>
+        <v>11.942959001782544</v>
       </c>
       <c r="N805" s="4">
-        <v>153.1</v>
+        <v>141.4</v>
       </c>
       <c r="O805" s="10">
         <f t="shared" si="63"/>
-        <v>28.200000000000017</v>
+        <v>26.900000000000006</v>
       </c>
       <c r="P805" s="13">
         <f t="shared" si="64"/>
-        <v>15.554329840044135</v>
+        <v>15.983363042186575</v>
       </c>
     </row>
     <row r="806" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -44926,42 +44926,42 @@
         <v>35</v>
       </c>
       <c r="F806" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G806" s="3">
-        <v>168.3</v>
+        <v>222.2</v>
       </c>
       <c r="H806" s="4">
-        <v>152.9</v>
+        <v>208.1</v>
       </c>
       <c r="I806" s="9">
-        <v>15.4</v>
+        <v>14.1</v>
       </c>
       <c r="J806" s="12">
         <f t="shared" si="60"/>
-        <v>9.1503267973856204</v>
+        <v>6.3456345634563451</v>
       </c>
       <c r="K806" s="4">
-        <v>148.19999999999999</v>
+        <v>204.6</v>
       </c>
       <c r="L806" s="10">
         <f t="shared" si="65"/>
-        <v>20.100000000000023</v>
+        <v>17.599999999999994</v>
       </c>
       <c r="M806" s="13">
         <f t="shared" si="62"/>
-        <v>11.942959001782544</v>
+        <v>7.9207920792079181</v>
       </c>
       <c r="N806" s="4">
-        <v>141.4</v>
+        <v>198.8</v>
       </c>
       <c r="O806" s="10">
         <f t="shared" si="63"/>
-        <v>26.900000000000006</v>
+        <v>23.399999999999977</v>
       </c>
       <c r="P806" s="13">
         <f t="shared" si="64"/>
-        <v>15.983363042186575</v>
+        <v>10.531053105310521</v>
       </c>
     </row>
     <row r="807" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -44981,42 +44981,42 @@
         <v>35</v>
       </c>
       <c r="F807" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G807" s="3">
-        <v>222.2</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="H807" s="4">
-        <v>208.1</v>
+        <v>140.30000000000001</v>
       </c>
       <c r="I807" s="9">
-        <v>14.1</v>
+        <v>22</v>
       </c>
       <c r="J807" s="12">
         <f t="shared" si="60"/>
-        <v>6.3456345634563451</v>
+        <v>13.555144793592113</v>
       </c>
       <c r="K807" s="4">
-        <v>204.6</v>
+        <v>133.9</v>
       </c>
       <c r="L807" s="10">
         <f t="shared" si="65"/>
-        <v>17.599999999999994</v>
+        <v>28.400000000000006</v>
       </c>
       <c r="M807" s="13">
         <f t="shared" si="62"/>
-        <v>7.9207920792079181</v>
+        <v>17.498459642637094</v>
       </c>
       <c r="N807" s="4">
-        <v>198.8</v>
+        <v>126.1</v>
       </c>
       <c r="O807" s="10">
         <f t="shared" si="63"/>
-        <v>23.399999999999977</v>
+        <v>36.200000000000017</v>
       </c>
       <c r="P807" s="13">
         <f t="shared" si="64"/>
-        <v>10.531053105310521</v>
+        <v>22.304374614910667</v>
       </c>
     </row>
     <row r="808" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -45036,42 +45036,42 @@
         <v>35</v>
       </c>
       <c r="F808" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G808" s="3">
-        <v>162.30000000000001</v>
+        <v>178.2</v>
       </c>
       <c r="H808" s="4">
-        <v>140.30000000000001</v>
+        <v>160.80000000000001</v>
       </c>
       <c r="I808" s="9">
-        <v>22</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="J808" s="12">
         <f t="shared" si="60"/>
-        <v>13.555144793592113</v>
+        <v>9.7643097643097647</v>
       </c>
       <c r="K808" s="4">
-        <v>133.9</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="L808" s="10">
         <f t="shared" si="65"/>
-        <v>28.400000000000006</v>
+        <v>21.899999999999977</v>
       </c>
       <c r="M808" s="13">
         <f t="shared" si="62"/>
-        <v>17.498459642637094</v>
+        <v>12.289562289562278</v>
       </c>
       <c r="N808" s="4">
-        <v>126.1</v>
+        <v>150.4</v>
       </c>
       <c r="O808" s="10">
         <f t="shared" si="63"/>
-        <v>36.200000000000017</v>
+        <v>27.799999999999983</v>
       </c>
       <c r="P808" s="13">
         <f t="shared" si="64"/>
-        <v>22.304374614910667</v>
+        <v>15.600448933782257</v>
       </c>
     </row>
     <row r="809" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -45091,42 +45091,42 @@
         <v>35</v>
       </c>
       <c r="F809" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G809" s="3">
-        <v>178.2</v>
+        <v>174.3</v>
       </c>
       <c r="H809" s="4">
-        <v>160.80000000000001</v>
+        <v>158.9</v>
       </c>
       <c r="I809" s="9">
-        <v>17.399999999999999</v>
+        <v>15.4</v>
       </c>
       <c r="J809" s="12">
         <f t="shared" si="60"/>
-        <v>9.7643097643097647</v>
+        <v>8.8353413654618471</v>
       </c>
       <c r="K809" s="4">
-        <v>156.30000000000001</v>
+        <v>154.30000000000001</v>
       </c>
       <c r="L809" s="10">
         <f t="shared" si="65"/>
-        <v>21.899999999999977</v>
+        <v>20</v>
       </c>
       <c r="M809" s="13">
         <f t="shared" si="62"/>
-        <v>12.289562289562278</v>
+        <v>11.474469305794607</v>
       </c>
       <c r="N809" s="4">
-        <v>150.4</v>
+        <v>148.4</v>
       </c>
       <c r="O809" s="10">
         <f t="shared" si="63"/>
-        <v>27.799999999999983</v>
+        <v>25.900000000000006</v>
       </c>
       <c r="P809" s="13">
         <f t="shared" si="64"/>
-        <v>15.600448933782257</v>
+        <v>14.859437751004018</v>
       </c>
     </row>
     <row r="810" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -45146,42 +45146,42 @@
         <v>35</v>
       </c>
       <c r="F810" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G810" s="3">
-        <v>174.3</v>
+        <v>187.8</v>
       </c>
       <c r="H810" s="4">
-        <v>158.9</v>
+        <v>170.8</v>
       </c>
       <c r="I810" s="9">
-        <v>15.4</v>
+        <v>17</v>
       </c>
       <c r="J810" s="12">
         <f t="shared" si="60"/>
-        <v>8.8353413654618471</v>
+        <v>9.052183173588924</v>
       </c>
       <c r="K810" s="4">
-        <v>154.30000000000001</v>
+        <v>165.4</v>
       </c>
       <c r="L810" s="10">
         <f t="shared" si="65"/>
-        <v>20</v>
+        <v>22.400000000000006</v>
       </c>
       <c r="M810" s="13">
         <f t="shared" si="62"/>
-        <v>11.474469305794607</v>
+        <v>11.92758253461129</v>
       </c>
       <c r="N810" s="4">
-        <v>148.4</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="O810" s="10">
         <f t="shared" si="63"/>
-        <v>25.900000000000006</v>
+        <v>29.5</v>
       </c>
       <c r="P810" s="13">
         <f t="shared" si="64"/>
-        <v>14.859437751004018</v>
+        <v>15.708200212992542</v>
       </c>
     </row>
     <row r="811" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -45192,51 +45192,51 @@
         <v>4</v>
       </c>
       <c r="C811" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D811" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E811" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F811" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G811" s="3">
-        <v>187.8</v>
+        <v>196.3</v>
       </c>
       <c r="H811" s="4">
-        <v>170.8</v>
+        <v>186</v>
       </c>
       <c r="I811" s="9">
-        <v>17</v>
+        <v>10.3</v>
       </c>
       <c r="J811" s="12">
         <f t="shared" si="60"/>
-        <v>9.052183173588924</v>
+        <v>5.2470708099847174</v>
       </c>
       <c r="K811" s="4">
-        <v>165.4</v>
+        <v>177.3</v>
       </c>
       <c r="L811" s="10">
         <f t="shared" si="65"/>
-        <v>22.400000000000006</v>
+        <v>19</v>
       </c>
       <c r="M811" s="13">
         <f t="shared" si="62"/>
-        <v>11.92758253461129</v>
+        <v>9.6790626591951092</v>
       </c>
       <c r="N811" s="4">
-        <v>158.30000000000001</v>
+        <v>169.6</v>
       </c>
       <c r="O811" s="10">
         <f t="shared" si="63"/>
-        <v>29.5</v>
+        <v>26.700000000000017</v>
       </c>
       <c r="P811" s="13">
         <f t="shared" si="64"/>
-        <v>15.708200212992542</v>
+        <v>13.601630157921557</v>
       </c>
     </row>
     <row r="812" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -45256,42 +45256,42 @@
         <v>34</v>
       </c>
       <c r="F812" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G812" s="3">
-        <v>196.3</v>
+        <v>196</v>
       </c>
       <c r="H812" s="4">
-        <v>186</v>
+        <v>182.2</v>
       </c>
       <c r="I812" s="9">
-        <v>10.3</v>
+        <v>13.8</v>
       </c>
       <c r="J812" s="12">
         <f t="shared" si="60"/>
-        <v>5.2470708099847174</v>
+        <v>7.0408163265306118</v>
       </c>
       <c r="K812" s="4">
-        <v>177.3</v>
+        <v>171.3</v>
       </c>
       <c r="L812" s="10">
         <f t="shared" si="65"/>
-        <v>19</v>
+        <v>24.699999999999989</v>
       </c>
       <c r="M812" s="13">
         <f t="shared" si="62"/>
-        <v>9.6790626591951092</v>
+        <v>12.602040816326523</v>
       </c>
       <c r="N812" s="4">
-        <v>169.6</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="O812" s="10">
         <f t="shared" si="63"/>
-        <v>26.700000000000017</v>
+        <v>33.699999999999989</v>
       </c>
       <c r="P812" s="13">
         <f t="shared" si="64"/>
-        <v>13.601630157921557</v>
+        <v>17.193877551020403</v>
       </c>
     </row>
     <row r="813" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -45311,42 +45311,42 @@
         <v>34</v>
       </c>
       <c r="F813" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G813" s="3">
-        <v>196</v>
+        <v>176.6</v>
       </c>
       <c r="H813" s="4">
-        <v>182.2</v>
+        <v>167.7</v>
       </c>
       <c r="I813" s="9">
-        <v>13.8</v>
+        <v>8.9</v>
       </c>
       <c r="J813" s="12">
         <f t="shared" si="60"/>
-        <v>7.0408163265306118</v>
+        <v>5.0396375990939983</v>
       </c>
       <c r="K813" s="4">
-        <v>171.3</v>
+        <v>159.1</v>
       </c>
       <c r="L813" s="10">
         <f t="shared" si="65"/>
-        <v>24.699999999999989</v>
+        <v>17.5</v>
       </c>
       <c r="M813" s="13">
         <f t="shared" si="62"/>
-        <v>12.602040816326523</v>
+        <v>9.9093997734994339</v>
       </c>
       <c r="N813" s="4">
-        <v>162.30000000000001</v>
+        <v>152.19999999999999</v>
       </c>
       <c r="O813" s="10">
         <f t="shared" si="63"/>
-        <v>33.699999999999989</v>
+        <v>24.400000000000006</v>
       </c>
       <c r="P813" s="13">
         <f t="shared" si="64"/>
-        <v>17.193877551020403</v>
+        <v>13.816534541336356</v>
       </c>
     </row>
     <row r="814" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -45366,42 +45366,42 @@
         <v>34</v>
       </c>
       <c r="F814" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G814" s="3">
-        <v>176.6</v>
+        <v>186.6</v>
       </c>
       <c r="H814" s="4">
-        <v>167.7</v>
+        <v>178</v>
       </c>
       <c r="I814" s="9">
-        <v>8.9</v>
+        <v>8.6</v>
       </c>
       <c r="J814" s="12">
         <f t="shared" si="60"/>
-        <v>5.0396375990939983</v>
+        <v>4.6087888531618439</v>
       </c>
       <c r="K814" s="4">
-        <v>159.1</v>
+        <v>170.7</v>
       </c>
       <c r="L814" s="10">
         <f t="shared" si="65"/>
-        <v>17.5</v>
+        <v>15.900000000000006</v>
       </c>
       <c r="M814" s="13">
         <f t="shared" si="62"/>
-        <v>9.9093997734994339</v>
+        <v>8.5209003215434116</v>
       </c>
       <c r="N814" s="4">
-        <v>152.19999999999999</v>
+        <v>164.9</v>
       </c>
       <c r="O814" s="10">
         <f t="shared" si="63"/>
-        <v>24.400000000000006</v>
+        <v>21.699999999999989</v>
       </c>
       <c r="P814" s="13">
         <f t="shared" si="64"/>
-        <v>13.816534541336356</v>
+        <v>11.629153269024647</v>
       </c>
     </row>
     <row r="815" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -45421,42 +45421,42 @@
         <v>34</v>
       </c>
       <c r="F815" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G815" s="3">
-        <v>186.6</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="H815" s="4">
-        <v>178</v>
+        <v>145.6</v>
       </c>
       <c r="I815" s="9">
-        <v>8.6</v>
+        <v>10.1</v>
       </c>
       <c r="J815" s="12">
         <f t="shared" si="60"/>
-        <v>4.6087888531618439</v>
+        <v>6.4868336544637124</v>
       </c>
       <c r="K815" s="4">
-        <v>170.7</v>
+        <v>137.4</v>
       </c>
       <c r="L815" s="10">
         <f t="shared" si="65"/>
-        <v>15.900000000000006</v>
+        <v>18.299999999999983</v>
       </c>
       <c r="M815" s="13">
         <f t="shared" si="62"/>
-        <v>8.5209003215434116</v>
+        <v>11.753371868978796</v>
       </c>
       <c r="N815" s="4">
-        <v>164.9</v>
+        <v>130.69999999999999</v>
       </c>
       <c r="O815" s="10">
         <f t="shared" si="63"/>
-        <v>21.699999999999989</v>
+        <v>25</v>
       </c>
       <c r="P815" s="13">
         <f t="shared" si="64"/>
-        <v>11.629153269024647</v>
+        <v>16.056518946692357</v>
       </c>
     </row>
     <row r="816" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -45476,42 +45476,42 @@
         <v>34</v>
       </c>
       <c r="F816" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G816" s="3">
-        <v>155.69999999999999</v>
+        <v>161.19999999999999</v>
       </c>
       <c r="H816" s="4">
-        <v>145.6</v>
+        <v>153.9</v>
       </c>
       <c r="I816" s="9">
-        <v>10.1</v>
+        <v>7.3</v>
       </c>
       <c r="J816" s="12">
         <f t="shared" si="60"/>
-        <v>6.4868336544637124</v>
+        <v>4.5285359801488836</v>
       </c>
       <c r="K816" s="4">
-        <v>137.4</v>
+        <v>146.6</v>
       </c>
       <c r="L816" s="10">
         <f t="shared" si="65"/>
-        <v>18.299999999999983</v>
+        <v>14.599999999999994</v>
       </c>
       <c r="M816" s="13">
         <f t="shared" si="62"/>
-        <v>11.753371868978796</v>
+        <v>9.0570719602977636</v>
       </c>
       <c r="N816" s="4">
-        <v>130.69999999999999</v>
+        <v>140.4</v>
       </c>
       <c r="O816" s="10">
         <f t="shared" si="63"/>
-        <v>25</v>
+        <v>20.799999999999983</v>
       </c>
       <c r="P816" s="13">
         <f t="shared" si="64"/>
-        <v>16.056518946692357</v>
+        <v>12.903225806451605</v>
       </c>
     </row>
     <row r="817" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -45531,42 +45531,42 @@
         <v>34</v>
       </c>
       <c r="F817" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G817" s="3">
-        <v>161.19999999999999</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="H817" s="4">
-        <v>153.9</v>
+        <v>140.30000000000001</v>
       </c>
       <c r="I817" s="9">
-        <v>7.3</v>
+        <v>9</v>
       </c>
       <c r="J817" s="12">
         <f t="shared" si="60"/>
-        <v>4.5285359801488836</v>
+        <v>6.0281312793034152</v>
       </c>
       <c r="K817" s="4">
-        <v>146.6</v>
+        <v>131.80000000000001</v>
       </c>
       <c r="L817" s="10">
         <f t="shared" si="65"/>
-        <v>14.599999999999994</v>
+        <v>17.5</v>
       </c>
       <c r="M817" s="13">
         <f t="shared" si="62"/>
-        <v>9.0570719602977636</v>
+        <v>11.721366376423308</v>
       </c>
       <c r="N817" s="4">
-        <v>140.4</v>
+        <v>124.3</v>
       </c>
       <c r="O817" s="10">
         <f t="shared" si="63"/>
-        <v>20.799999999999983</v>
+        <v>25.000000000000014</v>
       </c>
       <c r="P817" s="13">
         <f t="shared" si="64"/>
-        <v>12.903225806451605</v>
+        <v>16.744809109176163</v>
       </c>
     </row>
     <row r="818" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -45586,42 +45586,42 @@
         <v>34</v>
       </c>
       <c r="F818" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G818" s="3">
-        <v>149.30000000000001</v>
+        <v>148.5</v>
       </c>
       <c r="H818" s="4">
-        <v>140.30000000000001</v>
+        <v>140.5</v>
       </c>
       <c r="I818" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J818" s="12">
         <f t="shared" si="60"/>
-        <v>6.0281312793034152</v>
+        <v>5.3872053872053867</v>
       </c>
       <c r="K818" s="4">
-        <v>131.80000000000001</v>
+        <v>133.69999999999999</v>
       </c>
       <c r="L818" s="10">
         <f t="shared" si="65"/>
-        <v>17.5</v>
+        <v>14.800000000000011</v>
       </c>
       <c r="M818" s="13">
         <f t="shared" si="62"/>
-        <v>11.721366376423308</v>
+        <v>9.9663299663299743</v>
       </c>
       <c r="N818" s="4">
-        <v>124.3</v>
+        <v>128</v>
       </c>
       <c r="O818" s="10">
         <f t="shared" si="63"/>
-        <v>25.000000000000014</v>
+        <v>20.5</v>
       </c>
       <c r="P818" s="13">
         <f t="shared" si="64"/>
-        <v>16.744809109176163</v>
+        <v>13.804713804713806</v>
       </c>
     </row>
     <row r="819" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -45641,42 +45641,42 @@
         <v>34</v>
       </c>
       <c r="F819" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G819" s="3">
-        <v>148.5</v>
+        <v>165</v>
       </c>
       <c r="H819" s="4">
-        <v>140.5</v>
+        <v>156.9</v>
       </c>
       <c r="I819" s="9">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="J819" s="12">
         <f t="shared" si="60"/>
-        <v>5.3872053872053867</v>
+        <v>4.9090909090909092</v>
       </c>
       <c r="K819" s="4">
-        <v>133.69999999999999</v>
+        <v>150</v>
       </c>
       <c r="L819" s="10">
         <f t="shared" si="65"/>
-        <v>14.800000000000011</v>
+        <v>15</v>
       </c>
       <c r="M819" s="13">
         <f t="shared" si="62"/>
-        <v>9.9663299663299743</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="N819" s="4">
-        <v>128</v>
+        <v>144.4</v>
       </c>
       <c r="O819" s="10">
         <f t="shared" si="63"/>
-        <v>20.5</v>
+        <v>20.599999999999994</v>
       </c>
       <c r="P819" s="13">
         <f t="shared" si="64"/>
-        <v>13.804713804713806</v>
+        <v>12.484848484848483</v>
       </c>
     </row>
     <row r="820" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -45696,42 +45696,42 @@
         <v>34</v>
       </c>
       <c r="F820" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G820" s="3">
-        <v>165</v>
+        <v>227.8</v>
       </c>
       <c r="H820" s="4">
-        <v>156.9</v>
+        <v>215.1</v>
       </c>
       <c r="I820" s="9">
-        <v>8.1</v>
+        <v>12.7</v>
       </c>
       <c r="J820" s="12">
         <f t="shared" si="60"/>
-        <v>4.9090909090909092</v>
+        <v>5.5750658472344155</v>
       </c>
       <c r="K820" s="4">
-        <v>150</v>
+        <v>204.9</v>
       </c>
       <c r="L820" s="10">
         <f t="shared" si="65"/>
-        <v>15</v>
+        <v>22.900000000000006</v>
       </c>
       <c r="M820" s="13">
         <f t="shared" si="62"/>
-        <v>9.0909090909090917</v>
+        <v>10.052677787532925</v>
       </c>
       <c r="N820" s="4">
-        <v>144.4</v>
+        <v>197</v>
       </c>
       <c r="O820" s="10">
         <f t="shared" si="63"/>
-        <v>20.599999999999994</v>
+        <v>30.800000000000011</v>
       </c>
       <c r="P820" s="13">
         <f t="shared" si="64"/>
-        <v>12.484848484848483</v>
+        <v>13.5206321334504</v>
       </c>
     </row>
     <row r="821" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -45751,42 +45751,42 @@
         <v>34</v>
       </c>
       <c r="F821" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G821" s="3">
-        <v>227.8</v>
+        <v>177.4</v>
       </c>
       <c r="H821" s="4">
-        <v>215.1</v>
+        <v>168.4</v>
       </c>
       <c r="I821" s="9">
-        <v>12.7</v>
+        <v>9</v>
       </c>
       <c r="J821" s="12">
         <f t="shared" si="60"/>
-        <v>5.5750658472344155</v>
+        <v>5.0732807215332585</v>
       </c>
       <c r="K821" s="4">
-        <v>204.9</v>
+        <v>160.5</v>
       </c>
       <c r="L821" s="10">
         <f t="shared" si="65"/>
-        <v>22.900000000000006</v>
+        <v>16.900000000000006</v>
       </c>
       <c r="M821" s="13">
         <f t="shared" si="62"/>
-        <v>10.052677787532925</v>
+        <v>9.5264937993235659</v>
       </c>
       <c r="N821" s="4">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="O821" s="10">
         <f t="shared" si="63"/>
-        <v>30.800000000000011</v>
+        <v>23.400000000000006</v>
       </c>
       <c r="P821" s="13">
         <f t="shared" si="64"/>
-        <v>13.5206321334504</v>
+        <v>13.190529875986472</v>
       </c>
     </row>
     <row r="822" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -45806,42 +45806,42 @@
         <v>34</v>
       </c>
       <c r="F822" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G822" s="3">
-        <v>177.4</v>
+        <v>172</v>
       </c>
       <c r="H822" s="4">
-        <v>168.4</v>
+        <v>162.1</v>
       </c>
       <c r="I822" s="9">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="J822" s="12">
         <f t="shared" si="60"/>
-        <v>5.0732807215332585</v>
+        <v>5.7558139534883725</v>
       </c>
       <c r="K822" s="4">
-        <v>160.5</v>
+        <v>154.6</v>
       </c>
       <c r="L822" s="10">
         <f t="shared" si="65"/>
-        <v>16.900000000000006</v>
+        <v>17.400000000000006</v>
       </c>
       <c r="M822" s="13">
         <f t="shared" si="62"/>
-        <v>9.5264937993235659</v>
+        <v>10.116279069767446</v>
       </c>
       <c r="N822" s="4">
-        <v>154</v>
+        <v>148.4</v>
       </c>
       <c r="O822" s="10">
         <f t="shared" si="63"/>
-        <v>23.400000000000006</v>
+        <v>23.599999999999994</v>
       </c>
       <c r="P822" s="13">
         <f t="shared" si="64"/>
-        <v>13.190529875986472</v>
+        <v>13.720930232558137</v>
       </c>
     </row>
     <row r="823" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -45861,42 +45861,42 @@
         <v>34</v>
       </c>
       <c r="F823" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G823" s="3">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="H823" s="4">
-        <v>162.1</v>
+        <v>149.5</v>
       </c>
       <c r="I823" s="9">
-        <v>9.9</v>
+        <v>6.5</v>
       </c>
       <c r="J823" s="12">
         <f t="shared" si="60"/>
-        <v>5.7558139534883725</v>
+        <v>4.1666666666666661</v>
       </c>
       <c r="K823" s="4">
-        <v>154.6</v>
+        <v>143</v>
       </c>
       <c r="L823" s="10">
         <f t="shared" si="65"/>
-        <v>17.400000000000006</v>
+        <v>13</v>
       </c>
       <c r="M823" s="13">
         <f t="shared" si="62"/>
-        <v>10.116279069767446</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="N823" s="4">
-        <v>148.4</v>
+        <v>137.5</v>
       </c>
       <c r="O823" s="10">
         <f t="shared" si="63"/>
-        <v>23.599999999999994</v>
+        <v>18.5</v>
       </c>
       <c r="P823" s="13">
         <f t="shared" si="64"/>
-        <v>13.720930232558137</v>
+        <v>11.858974358974358</v>
       </c>
     </row>
     <row r="824" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -45916,42 +45916,42 @@
         <v>34</v>
       </c>
       <c r="F824" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G824" s="3">
-        <v>156</v>
+        <v>170.3</v>
       </c>
       <c r="H824" s="4">
-        <v>149.5</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="I824" s="9">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J824" s="12">
         <f t="shared" si="60"/>
-        <v>4.1666666666666661</v>
+        <v>4.1103934233705219</v>
       </c>
       <c r="K824" s="4">
-        <v>143</v>
+        <v>156.4</v>
       </c>
       <c r="L824" s="10">
         <f t="shared" si="65"/>
-        <v>13</v>
+        <v>13.900000000000006</v>
       </c>
       <c r="M824" s="13">
         <f t="shared" si="62"/>
-        <v>8.3333333333333321</v>
+        <v>8.162066940692899</v>
       </c>
       <c r="N824" s="4">
-        <v>137.5</v>
+        <v>150.5</v>
       </c>
       <c r="O824" s="10">
         <f t="shared" si="63"/>
-        <v>18.5</v>
+        <v>19.800000000000011</v>
       </c>
       <c r="P824" s="13">
         <f t="shared" si="64"/>
-        <v>11.858974358974358</v>
+        <v>11.626541397533769</v>
       </c>
     </row>
     <row r="825" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -45971,42 +45971,42 @@
         <v>34</v>
       </c>
       <c r="F825" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G825" s="3">
-        <v>170.3</v>
+        <v>156.19999999999999</v>
       </c>
       <c r="H825" s="4">
-        <v>163.30000000000001</v>
+        <v>149.4</v>
       </c>
       <c r="I825" s="9">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J825" s="12">
         <f t="shared" si="60"/>
-        <v>4.1103934233705219</v>
+        <v>4.3533930857874523</v>
       </c>
       <c r="K825" s="4">
-        <v>156.4</v>
+        <v>143</v>
       </c>
       <c r="L825" s="10">
         <f t="shared" si="65"/>
-        <v>13.900000000000006</v>
+        <v>13.199999999999989</v>
       </c>
       <c r="M825" s="13">
         <f t="shared" si="62"/>
-        <v>8.162066940692899</v>
+        <v>8.450704225352105</v>
       </c>
       <c r="N825" s="4">
-        <v>150.5</v>
+        <v>137.5</v>
       </c>
       <c r="O825" s="10">
         <f t="shared" si="63"/>
-        <v>19.800000000000011</v>
+        <v>18.699999999999989</v>
       </c>
       <c r="P825" s="13">
         <f t="shared" si="64"/>
-        <v>11.626541397533769</v>
+        <v>11.971830985915487</v>
       </c>
     </row>
     <row r="826" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46017,51 +46017,51 @@
         <v>4</v>
       </c>
       <c r="C826" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D826" s="3">
         <v>0</v>
       </c>
       <c r="E826" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F826" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G826" s="3">
-        <v>156.19999999999999</v>
+        <v>146</v>
       </c>
       <c r="H826" s="4">
-        <v>149.4</v>
+        <v>138.6</v>
       </c>
       <c r="I826" s="9">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="J826" s="12">
         <f t="shared" si="60"/>
-        <v>4.3533930857874523</v>
+        <v>5.0684931506849313</v>
       </c>
       <c r="K826" s="4">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="L826" s="10">
         <f t="shared" si="65"/>
-        <v>13.199999999999989</v>
+        <v>12</v>
       </c>
       <c r="M826" s="13">
         <f t="shared" si="62"/>
-        <v>8.450704225352105</v>
+        <v>8.2191780821917799</v>
       </c>
       <c r="N826" s="4">
-        <v>137.5</v>
+        <v>128.69999999999999</v>
       </c>
       <c r="O826" s="10">
         <f t="shared" si="63"/>
-        <v>18.699999999999989</v>
+        <v>17.300000000000011</v>
       </c>
       <c r="P826" s="13">
         <f t="shared" si="64"/>
-        <v>11.971830985915487</v>
+        <v>11.849315068493159</v>
       </c>
     </row>
     <row r="827" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46081,42 +46081,42 @@
         <v>36</v>
       </c>
       <c r="F827" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G827" s="3">
-        <v>146</v>
+        <v>213.5</v>
       </c>
       <c r="H827" s="4">
-        <v>138.6</v>
+        <v>206.7</v>
       </c>
       <c r="I827" s="9">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="J827" s="12">
         <f t="shared" si="60"/>
-        <v>5.0684931506849313</v>
+        <v>3.1850117096018731</v>
       </c>
       <c r="K827" s="4">
-        <v>134</v>
+        <v>202.5</v>
       </c>
       <c r="L827" s="10">
         <f t="shared" si="65"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M827" s="13">
         <f t="shared" si="62"/>
-        <v>8.2191780821917799</v>
+        <v>5.1522248243559723</v>
       </c>
       <c r="N827" s="4">
-        <v>128.69999999999999</v>
+        <v>187.8</v>
       </c>
       <c r="O827" s="10">
         <f t="shared" si="63"/>
-        <v>17.300000000000011</v>
+        <v>25.699999999999989</v>
       </c>
       <c r="P827" s="13">
         <f t="shared" si="64"/>
-        <v>11.849315068493159</v>
+        <v>12.037470725995311</v>
       </c>
     </row>
     <row r="828" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46136,42 +46136,42 @@
         <v>36</v>
       </c>
       <c r="F828" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G828" s="3">
-        <v>213.5</v>
+        <v>136.4</v>
       </c>
       <c r="H828" s="4">
-        <v>206.7</v>
+        <v>130.4</v>
       </c>
       <c r="I828" s="9">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="J828" s="12">
         <f t="shared" si="60"/>
-        <v>3.1850117096018731</v>
+        <v>4.3988269794721404</v>
       </c>
       <c r="K828" s="4">
-        <v>202.5</v>
+        <v>127.1</v>
       </c>
       <c r="L828" s="10">
         <f t="shared" si="65"/>
-        <v>11</v>
+        <v>9.3000000000000114</v>
       </c>
       <c r="M828" s="13">
         <f t="shared" si="62"/>
-        <v>5.1522248243559723</v>
+        <v>6.8181818181818263</v>
       </c>
       <c r="N828" s="4">
-        <v>187.8</v>
+        <v>123.6</v>
       </c>
       <c r="O828" s="10">
         <f t="shared" si="63"/>
-        <v>25.699999999999989</v>
+        <v>12.800000000000011</v>
       </c>
       <c r="P828" s="13">
         <f t="shared" si="64"/>
-        <v>12.037470725995311</v>
+        <v>9.3841642228739079</v>
       </c>
     </row>
     <row r="829" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46191,42 +46191,42 @@
         <v>36</v>
       </c>
       <c r="F829" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G829" s="3">
-        <v>136.4</v>
+        <v>181.4</v>
       </c>
       <c r="H829" s="4">
-        <v>130.4</v>
+        <v>171</v>
       </c>
       <c r="I829" s="9">
-        <v>6</v>
+        <v>10.4</v>
       </c>
       <c r="J829" s="12">
         <f t="shared" si="60"/>
-        <v>4.3988269794721404</v>
+        <v>5.7331863285556786</v>
       </c>
       <c r="K829" s="4">
-        <v>127.1</v>
+        <v>164.7</v>
       </c>
       <c r="L829" s="10">
         <f t="shared" si="65"/>
-        <v>9.3000000000000114</v>
+        <v>16.700000000000017</v>
       </c>
       <c r="M829" s="13">
         <f t="shared" si="62"/>
-        <v>6.8181818181818263</v>
+        <v>9.2061742006615308</v>
       </c>
       <c r="N829" s="4">
-        <v>123.6</v>
+        <v>157.80000000000001</v>
       </c>
       <c r="O829" s="10">
         <f t="shared" si="63"/>
-        <v>12.800000000000011</v>
+        <v>23.599999999999994</v>
       </c>
       <c r="P829" s="13">
         <f t="shared" si="64"/>
-        <v>9.3841642228739079</v>
+        <v>13.009922822491726</v>
       </c>
     </row>
     <row r="830" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46246,42 +46246,42 @@
         <v>36</v>
       </c>
       <c r="F830" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G830" s="3">
-        <v>181.4</v>
+        <v>200.6</v>
       </c>
       <c r="H830" s="4">
-        <v>171</v>
+        <v>192.5</v>
       </c>
       <c r="I830" s="9">
-        <v>10.4</v>
+        <v>8.1</v>
       </c>
       <c r="J830" s="12">
         <f t="shared" si="60"/>
-        <v>5.7331863285556786</v>
+        <v>4.0378863409770691</v>
       </c>
       <c r="K830" s="4">
-        <v>164.7</v>
+        <v>187.5</v>
       </c>
       <c r="L830" s="10">
         <f t="shared" si="65"/>
-        <v>16.700000000000017</v>
+        <v>13.099999999999994</v>
       </c>
       <c r="M830" s="13">
         <f t="shared" si="62"/>
-        <v>9.2061742006615308</v>
+        <v>6.5304087736789596</v>
       </c>
       <c r="N830" s="4">
-        <v>157.80000000000001</v>
+        <v>181.2</v>
       </c>
       <c r="O830" s="10">
         <f t="shared" si="63"/>
-        <v>23.599999999999994</v>
+        <v>19.400000000000006</v>
       </c>
       <c r="P830" s="13">
         <f t="shared" si="64"/>
-        <v>13.009922822491726</v>
+        <v>9.6709870388833519</v>
       </c>
     </row>
     <row r="831" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46301,42 +46301,42 @@
         <v>36</v>
       </c>
       <c r="F831" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G831" s="3">
-        <v>200.6</v>
+        <v>148.69999999999999</v>
       </c>
       <c r="H831" s="4">
-        <v>192.5</v>
+        <v>142</v>
       </c>
       <c r="I831" s="9">
-        <v>8.1</v>
+        <v>6.7</v>
       </c>
       <c r="J831" s="12">
         <f t="shared" si="60"/>
-        <v>4.0378863409770691</v>
+        <v>4.5057162071284473</v>
       </c>
       <c r="K831" s="4">
-        <v>187.5</v>
+        <v>147.6</v>
       </c>
       <c r="L831" s="10">
         <f t="shared" si="65"/>
-        <v>13.099999999999994</v>
+        <v>1.0999999999999943</v>
       </c>
       <c r="M831" s="13">
         <f t="shared" si="62"/>
-        <v>6.5304087736789596</v>
+        <v>0.73974445191660687</v>
       </c>
       <c r="N831" s="4">
-        <v>181.2</v>
+        <v>133.19999999999999</v>
       </c>
       <c r="O831" s="10">
         <f t="shared" si="63"/>
-        <v>19.400000000000006</v>
+        <v>15.5</v>
       </c>
       <c r="P831" s="13">
         <f t="shared" si="64"/>
-        <v>9.6709870388833519</v>
+        <v>10.423671822461332</v>
       </c>
     </row>
     <row r="832" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46356,42 +46356,42 @@
         <v>36</v>
       </c>
       <c r="F832" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G832" s="3">
-        <v>148.69999999999999</v>
+        <v>161.4</v>
       </c>
       <c r="H832" s="4">
-        <v>142</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="I832" s="9">
-        <v>6.7</v>
+        <v>5.6</v>
       </c>
       <c r="J832" s="12">
         <f t="shared" si="60"/>
-        <v>4.5057162071284473</v>
+        <v>3.4696406443618337</v>
       </c>
       <c r="K832" s="4">
-        <v>147.6</v>
+        <v>152.6</v>
       </c>
       <c r="L832" s="10">
         <f t="shared" si="65"/>
-        <v>1.0999999999999943</v>
+        <v>8.8000000000000114</v>
       </c>
       <c r="M832" s="13">
         <f t="shared" si="62"/>
-        <v>0.73974445191660687</v>
+        <v>5.452292441140032</v>
       </c>
       <c r="N832" s="4">
-        <v>133.19999999999999</v>
+        <v>148.9</v>
       </c>
       <c r="O832" s="10">
         <f t="shared" si="63"/>
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="P832" s="13">
         <f t="shared" si="64"/>
-        <v>10.423671822461332</v>
+        <v>7.744733581164807</v>
       </c>
     </row>
     <row r="833" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46411,42 +46411,42 @@
         <v>36</v>
       </c>
       <c r="F833" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G833" s="3">
-        <v>161.4</v>
+        <v>153.9</v>
       </c>
       <c r="H833" s="4">
-        <v>155.80000000000001</v>
+        <v>146.1</v>
       </c>
       <c r="I833" s="9">
-        <v>5.6</v>
+        <v>7.8</v>
       </c>
       <c r="J833" s="12">
         <f t="shared" si="60"/>
-        <v>3.4696406443618337</v>
+        <v>5.0682261208577</v>
       </c>
       <c r="K833" s="4">
-        <v>152.6</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="L833" s="10">
         <f t="shared" si="65"/>
-        <v>8.8000000000000114</v>
+        <v>11.700000000000017</v>
       </c>
       <c r="M833" s="13">
         <f t="shared" si="62"/>
-        <v>5.452292441140032</v>
+        <v>7.6023391812865606</v>
       </c>
       <c r="N833" s="4">
-        <v>148.9</v>
+        <v>137.30000000000001</v>
       </c>
       <c r="O833" s="10">
         <f t="shared" si="63"/>
-        <v>12.5</v>
+        <v>16.599999999999994</v>
       </c>
       <c r="P833" s="13">
         <f t="shared" si="64"/>
-        <v>7.744733581164807</v>
+        <v>10.786224821312535</v>
       </c>
     </row>
     <row r="834" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46466,42 +46466,42 @@
         <v>36</v>
       </c>
       <c r="F834" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G834" s="3">
-        <v>153.9</v>
+        <v>194.2</v>
       </c>
       <c r="H834" s="4">
-        <v>146.1</v>
+        <v>185.1</v>
       </c>
       <c r="I834" s="9">
-        <v>7.8</v>
+        <v>9.1</v>
       </c>
       <c r="J834" s="12">
-        <f t="shared" si="60"/>
-        <v>5.0682261208577</v>
+        <f t="shared" ref="J834:J897" si="66">I834/G834*100</f>
+        <v>4.6858908341915546</v>
       </c>
       <c r="K834" s="4">
-        <v>142.19999999999999</v>
+        <v>180.2</v>
       </c>
       <c r="L834" s="10">
         <f t="shared" si="65"/>
-        <v>11.700000000000017</v>
+        <v>14</v>
       </c>
       <c r="M834" s="13">
-        <f t="shared" si="62"/>
-        <v>7.6023391812865606</v>
+        <f t="shared" ref="M834:M897" si="67">L834/G834*100</f>
+        <v>7.2090628218331618</v>
       </c>
       <c r="N834" s="4">
-        <v>137.30000000000001</v>
+        <v>174.2</v>
       </c>
       <c r="O834" s="10">
-        <f t="shared" si="63"/>
-        <v>16.599999999999994</v>
+        <f t="shared" ref="O834:O897" si="68">G834-N834</f>
+        <v>20</v>
       </c>
       <c r="P834" s="13">
-        <f t="shared" si="64"/>
-        <v>10.786224821312535</v>
+        <f t="shared" ref="P834:P897" si="69">O834/G834*100</f>
+        <v>10.298661174047375</v>
       </c>
     </row>
     <row r="835" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46521,42 +46521,42 @@
         <v>36</v>
       </c>
       <c r="F835" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G835" s="3">
-        <v>194.2</v>
+        <v>179.3</v>
       </c>
       <c r="H835" s="4">
-        <v>185.1</v>
+        <v>172.8</v>
       </c>
       <c r="I835" s="9">
-        <v>9.1</v>
+        <v>6.5</v>
       </c>
       <c r="J835" s="12">
-        <f t="shared" ref="J835:J898" si="66">I835/G835*100</f>
-        <v>4.6858908341915546</v>
+        <f t="shared" si="66"/>
+        <v>3.6252091466815393</v>
       </c>
       <c r="K835" s="4">
-        <v>180.2</v>
+        <v>167.6</v>
       </c>
       <c r="L835" s="10">
         <f t="shared" si="65"/>
-        <v>14</v>
+        <v>11.700000000000017</v>
       </c>
       <c r="M835" s="13">
-        <f t="shared" ref="M835:M898" si="67">L835/G835*100</f>
-        <v>7.2090628218331618</v>
+        <f t="shared" si="67"/>
+        <v>6.5253764640267802</v>
       </c>
       <c r="N835" s="4">
-        <v>174.2</v>
+        <v>162</v>
       </c>
       <c r="O835" s="10">
-        <f t="shared" ref="O835:O898" si="68">G835-N835</f>
-        <v>20</v>
+        <f t="shared" si="68"/>
+        <v>17.300000000000011</v>
       </c>
       <c r="P835" s="13">
-        <f t="shared" ref="P835:P898" si="69">O835/G835*100</f>
-        <v>10.298661174047375</v>
+        <f t="shared" si="69"/>
+        <v>9.6486335750139478</v>
       </c>
     </row>
     <row r="836" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46576,42 +46576,42 @@
         <v>36</v>
       </c>
       <c r="F836" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G836" s="3">
-        <v>179.3</v>
+        <v>163</v>
       </c>
       <c r="H836" s="4">
-        <v>172.8</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="I836" s="9">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="J836" s="12">
         <f t="shared" si="66"/>
-        <v>3.6252091466815393</v>
+        <v>3.5582822085889565</v>
       </c>
       <c r="K836" s="4">
-        <v>167.6</v>
+        <v>152.80000000000001</v>
       </c>
       <c r="L836" s="10">
         <f t="shared" si="65"/>
-        <v>11.700000000000017</v>
+        <v>10.199999999999989</v>
       </c>
       <c r="M836" s="13">
         <f t="shared" si="67"/>
-        <v>6.5253764640267802</v>
+        <v>6.2576687116564349</v>
       </c>
       <c r="N836" s="4">
-        <v>162</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="O836" s="10">
         <f t="shared" si="68"/>
-        <v>17.300000000000011</v>
+        <v>14.699999999999989</v>
       </c>
       <c r="P836" s="13">
         <f t="shared" si="69"/>
-        <v>9.6486335750139478</v>
+        <v>9.0184049079754516</v>
       </c>
     </row>
     <row r="837" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46631,42 +46631,42 @@
         <v>36</v>
       </c>
       <c r="F837" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G837" s="3">
-        <v>163</v>
+        <v>168.8</v>
       </c>
       <c r="H837" s="4">
-        <v>157.19999999999999</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="I837" s="9">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="J837" s="12">
         <f t="shared" si="66"/>
-        <v>3.5582822085889565</v>
+        <v>3.5545023696682465</v>
       </c>
       <c r="K837" s="4">
-        <v>152.80000000000001</v>
+        <v>159.30000000000001</v>
       </c>
       <c r="L837" s="10">
         <f t="shared" si="65"/>
-        <v>10.199999999999989</v>
+        <v>9.5</v>
       </c>
       <c r="M837" s="13">
         <f t="shared" si="67"/>
-        <v>6.2576687116564349</v>
+        <v>5.6279620853080567</v>
       </c>
       <c r="N837" s="4">
-        <v>148.30000000000001</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="O837" s="10">
         <f t="shared" si="68"/>
-        <v>14.699999999999989</v>
+        <v>13.5</v>
       </c>
       <c r="P837" s="13">
         <f t="shared" si="69"/>
-        <v>9.0184049079754516</v>
+        <v>7.9976303317535535</v>
       </c>
     </row>
     <row r="838" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46686,42 +46686,42 @@
         <v>36</v>
       </c>
       <c r="F838" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G838" s="3">
-        <v>168.8</v>
+        <v>193.2</v>
       </c>
       <c r="H838" s="4">
-        <v>162.80000000000001</v>
+        <v>186.7</v>
       </c>
       <c r="I838" s="9">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J838" s="12">
         <f t="shared" si="66"/>
-        <v>3.5545023696682465</v>
+        <v>3.3643892339544514</v>
       </c>
       <c r="K838" s="4">
-        <v>159.30000000000001</v>
+        <v>183</v>
       </c>
       <c r="L838" s="10">
         <f t="shared" si="65"/>
-        <v>9.5</v>
+        <v>10.199999999999989</v>
       </c>
       <c r="M838" s="13">
         <f t="shared" si="67"/>
-        <v>5.6279620853080567</v>
+        <v>5.2795031055900568</v>
       </c>
       <c r="N838" s="4">
-        <v>155.30000000000001</v>
+        <v>178.4</v>
       </c>
       <c r="O838" s="10">
         <f t="shared" si="68"/>
-        <v>13.5</v>
+        <v>14.799999999999983</v>
       </c>
       <c r="P838" s="13">
         <f t="shared" si="69"/>
-        <v>7.9976303317535535</v>
+        <v>7.6604554865424346</v>
       </c>
     </row>
     <row r="839" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46741,42 +46741,42 @@
         <v>36</v>
       </c>
       <c r="F839" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G839" s="3">
-        <v>193.2</v>
+        <v>189</v>
       </c>
       <c r="H839" s="4">
-        <v>186.7</v>
+        <v>180.6</v>
       </c>
       <c r="I839" s="9">
-        <v>6.5</v>
+        <v>8.4</v>
       </c>
       <c r="J839" s="12">
         <f t="shared" si="66"/>
-        <v>3.3643892339544514</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="K839" s="4">
-        <v>183</v>
+        <v>174.3</v>
       </c>
       <c r="L839" s="10">
         <f t="shared" si="65"/>
-        <v>10.199999999999989</v>
+        <v>14.699999999999989</v>
       </c>
       <c r="M839" s="13">
         <f t="shared" si="67"/>
-        <v>5.2795031055900568</v>
+        <v>7.7777777777777724</v>
       </c>
       <c r="N839" s="4">
-        <v>178.4</v>
+        <v>166.7</v>
       </c>
       <c r="O839" s="10">
         <f t="shared" si="68"/>
-        <v>14.799999999999983</v>
+        <v>22.300000000000011</v>
       </c>
       <c r="P839" s="13">
         <f t="shared" si="69"/>
-        <v>7.6604554865424346</v>
+        <v>11.798941798941804</v>
       </c>
     </row>
     <row r="840" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46796,42 +46796,42 @@
         <v>36</v>
       </c>
       <c r="F840" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G840" s="3">
-        <v>189</v>
+        <v>214.5</v>
       </c>
       <c r="H840" s="4">
-        <v>180.6</v>
+        <v>202.8</v>
       </c>
       <c r="I840" s="9">
-        <v>8.4</v>
+        <v>11.7</v>
       </c>
       <c r="J840" s="12">
         <f t="shared" si="66"/>
-        <v>4.4444444444444446</v>
+        <v>5.4545454545454541</v>
       </c>
       <c r="K840" s="4">
-        <v>174.3</v>
+        <v>195.7</v>
       </c>
       <c r="L840" s="10">
         <f t="shared" si="65"/>
-        <v>14.699999999999989</v>
+        <v>18.800000000000011</v>
       </c>
       <c r="M840" s="13">
         <f t="shared" si="67"/>
-        <v>7.7777777777777724</v>
+        <v>8.7645687645687698</v>
       </c>
       <c r="N840" s="4">
-        <v>166.7</v>
+        <v>187.8</v>
       </c>
       <c r="O840" s="10">
         <f t="shared" si="68"/>
-        <v>22.300000000000011</v>
+        <v>26.699999999999989</v>
       </c>
       <c r="P840" s="13">
         <f t="shared" si="69"/>
-        <v>11.798941798941804</v>
+        <v>12.447552447552443</v>
       </c>
     </row>
     <row r="841" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46839,7 +46839,7 @@
         <v>29</v>
       </c>
       <c r="B841" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C841" s="3">
         <v>0</v>
@@ -46851,42 +46851,42 @@
         <v>36</v>
       </c>
       <c r="F841" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G841" s="3">
-        <v>214.5</v>
+        <v>143.9</v>
       </c>
       <c r="H841" s="4">
-        <v>202.8</v>
+        <v>134.4</v>
       </c>
       <c r="I841" s="9">
-        <v>11.7</v>
+        <v>9.5</v>
       </c>
       <c r="J841" s="12">
         <f t="shared" si="66"/>
-        <v>5.4545454545454541</v>
+        <v>6.6018068102849199</v>
       </c>
       <c r="K841" s="4">
-        <v>195.7</v>
+        <v>124.3</v>
       </c>
       <c r="L841" s="10">
         <f t="shared" si="65"/>
-        <v>18.800000000000011</v>
+        <v>19.600000000000009</v>
       </c>
       <c r="M841" s="13">
         <f t="shared" si="67"/>
-        <v>8.7645687645687698</v>
+        <v>13.620569840166787</v>
       </c>
       <c r="N841" s="4">
-        <v>187.8</v>
+        <v>116.6</v>
       </c>
       <c r="O841" s="10">
         <f t="shared" si="68"/>
-        <v>26.699999999999989</v>
+        <v>27.300000000000011</v>
       </c>
       <c r="P841" s="13">
         <f t="shared" si="69"/>
-        <v>12.447552447552443</v>
+        <v>18.971507991660882</v>
       </c>
     </row>
     <row r="842" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46906,42 +46906,42 @@
         <v>36</v>
       </c>
       <c r="F842" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G842" s="3">
-        <v>143.9</v>
+        <v>121.5</v>
       </c>
       <c r="H842" s="4">
-        <v>134.4</v>
+        <v>115.5</v>
       </c>
       <c r="I842" s="9">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="J842" s="12">
         <f t="shared" si="66"/>
-        <v>6.6018068102849199</v>
+        <v>4.9382716049382713</v>
       </c>
       <c r="K842" s="4">
-        <v>124.3</v>
+        <v>108.3</v>
       </c>
       <c r="L842" s="10">
         <f t="shared" si="65"/>
-        <v>19.600000000000009</v>
+        <v>13.200000000000003</v>
       </c>
       <c r="M842" s="13">
         <f t="shared" si="67"/>
-        <v>13.620569840166787</v>
+        <v>10.8641975308642</v>
       </c>
       <c r="N842" s="4">
-        <v>116.6</v>
+        <v>102.8</v>
       </c>
       <c r="O842" s="10">
         <f t="shared" si="68"/>
-        <v>27.300000000000011</v>
+        <v>18.700000000000003</v>
       </c>
       <c r="P842" s="13">
         <f t="shared" si="69"/>
-        <v>18.971507991660882</v>
+        <v>15.390946502057615</v>
       </c>
     </row>
     <row r="843" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -46961,42 +46961,42 @@
         <v>36</v>
       </c>
       <c r="F843" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G843" s="3">
-        <v>121.5</v>
+        <v>134.1</v>
       </c>
       <c r="H843" s="4">
-        <v>115.5</v>
+        <v>127.6</v>
       </c>
       <c r="I843" s="9">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J843" s="12">
         <f t="shared" si="66"/>
-        <v>4.9382716049382713</v>
+        <v>4.8471290082028338</v>
       </c>
       <c r="K843" s="4">
-        <v>108.3</v>
+        <v>120.5</v>
       </c>
       <c r="L843" s="10">
         <f t="shared" si="65"/>
-        <v>13.200000000000003</v>
+        <v>13.599999999999994</v>
       </c>
       <c r="M843" s="13">
         <f t="shared" si="67"/>
-        <v>10.8641975308642</v>
+        <v>10.141685309470541</v>
       </c>
       <c r="N843" s="4">
-        <v>102.8</v>
+        <v>115</v>
       </c>
       <c r="O843" s="10">
         <f t="shared" si="68"/>
-        <v>18.700000000000003</v>
+        <v>19.099999999999994</v>
       </c>
       <c r="P843" s="13">
         <f t="shared" si="69"/>
-        <v>15.390946502057615</v>
+        <v>14.243102162565247</v>
       </c>
     </row>
     <row r="844" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47016,42 +47016,42 @@
         <v>36</v>
       </c>
       <c r="F844" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G844" s="3">
-        <v>134.1</v>
+        <v>141.9</v>
       </c>
       <c r="H844" s="4">
-        <v>127.6</v>
+        <v>132.4</v>
       </c>
       <c r="I844" s="9">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="J844" s="12">
         <f t="shared" si="66"/>
-        <v>4.8471290082028338</v>
+        <v>6.6948555320648344</v>
       </c>
       <c r="K844" s="4">
-        <v>120.5</v>
+        <v>123.3</v>
       </c>
       <c r="L844" s="10">
         <f t="shared" si="65"/>
-        <v>13.599999999999994</v>
+        <v>18.600000000000009</v>
       </c>
       <c r="M844" s="13">
         <f t="shared" si="67"/>
-        <v>10.141685309470541</v>
+        <v>13.107822410147996</v>
       </c>
       <c r="N844" s="4">
-        <v>115</v>
+        <v>116.5</v>
       </c>
       <c r="O844" s="10">
         <f t="shared" si="68"/>
-        <v>19.099999999999994</v>
+        <v>25.400000000000006</v>
       </c>
       <c r="P844" s="13">
         <f t="shared" si="69"/>
-        <v>14.243102162565247</v>
+        <v>17.899929527836509</v>
       </c>
     </row>
     <row r="845" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47071,42 +47071,42 @@
         <v>36</v>
       </c>
       <c r="F845" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G845" s="3">
-        <v>141.9</v>
+        <v>176.8</v>
       </c>
       <c r="H845" s="4">
-        <v>132.4</v>
+        <v>170.1</v>
       </c>
       <c r="I845" s="9">
-        <v>9.5</v>
+        <v>6.7</v>
       </c>
       <c r="J845" s="12">
         <f t="shared" si="66"/>
-        <v>6.6948555320648344</v>
+        <v>3.7895927601809953</v>
       </c>
       <c r="K845" s="4">
-        <v>123.3</v>
+        <v>162.5</v>
       </c>
       <c r="L845" s="10">
         <f t="shared" si="65"/>
-        <v>18.600000000000009</v>
+        <v>14.300000000000011</v>
       </c>
       <c r="M845" s="13">
         <f t="shared" si="67"/>
-        <v>13.107822410147996</v>
+        <v>8.0882352941176539</v>
       </c>
       <c r="N845" s="4">
-        <v>116.5</v>
+        <v>156</v>
       </c>
       <c r="O845" s="10">
         <f t="shared" si="68"/>
-        <v>25.400000000000006</v>
+        <v>20.800000000000011</v>
       </c>
       <c r="P845" s="13">
         <f t="shared" si="69"/>
-        <v>17.899929527836509</v>
+        <v>11.764705882352947</v>
       </c>
     </row>
     <row r="846" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47126,42 +47126,42 @@
         <v>36</v>
       </c>
       <c r="F846" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G846" s="3">
-        <v>176.8</v>
+        <v>157.69999999999999</v>
       </c>
       <c r="H846" s="4">
-        <v>170.1</v>
+        <v>148.9</v>
       </c>
       <c r="I846" s="9">
-        <v>6.7</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J846" s="12">
         <f t="shared" si="66"/>
-        <v>3.7895927601809953</v>
+        <v>5.5802155992390619</v>
       </c>
       <c r="K846" s="4">
-        <v>162.5</v>
+        <v>139</v>
       </c>
       <c r="L846" s="10">
         <f t="shared" si="65"/>
-        <v>14.300000000000011</v>
+        <v>18.699999999999989</v>
       </c>
       <c r="M846" s="13">
         <f t="shared" si="67"/>
-        <v>8.0882352941176539</v>
+        <v>11.857958148383</v>
       </c>
       <c r="N846" s="4">
-        <v>156</v>
+        <v>131.30000000000001</v>
       </c>
       <c r="O846" s="10">
         <f t="shared" si="68"/>
-        <v>20.800000000000011</v>
+        <v>26.399999999999977</v>
       </c>
       <c r="P846" s="13">
         <f t="shared" si="69"/>
-        <v>11.764705882352947</v>
+        <v>16.740646797717172</v>
       </c>
     </row>
     <row r="847" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47181,42 +47181,42 @@
         <v>36</v>
       </c>
       <c r="F847" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G847" s="3">
-        <v>157.69999999999999</v>
+        <v>169.2</v>
       </c>
       <c r="H847" s="4">
-        <v>148.9</v>
+        <v>163</v>
       </c>
       <c r="I847" s="9">
-        <v>8.8000000000000007</v>
+        <v>6.2</v>
       </c>
       <c r="J847" s="12">
         <f t="shared" si="66"/>
-        <v>5.5802155992390619</v>
+        <v>3.6643026004728139</v>
       </c>
       <c r="K847" s="4">
-        <v>139</v>
+        <v>156.1</v>
       </c>
       <c r="L847" s="10">
         <f t="shared" si="65"/>
-        <v>18.699999999999989</v>
+        <v>13.099999999999994</v>
       </c>
       <c r="M847" s="13">
         <f t="shared" si="67"/>
-        <v>11.857958148383</v>
+        <v>7.7423167848699741</v>
       </c>
       <c r="N847" s="4">
-        <v>131.30000000000001</v>
+        <v>150.1</v>
       </c>
       <c r="O847" s="10">
         <f t="shared" si="68"/>
-        <v>26.399999999999977</v>
+        <v>19.099999999999994</v>
       </c>
       <c r="P847" s="13">
         <f t="shared" si="69"/>
-        <v>16.740646797717172</v>
+        <v>11.288416075650115</v>
       </c>
     </row>
     <row r="848" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47236,42 +47236,42 @@
         <v>36</v>
       </c>
       <c r="F848" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G848" s="3">
-        <v>169.2</v>
+        <v>181.3</v>
       </c>
       <c r="H848" s="4">
-        <v>163</v>
+        <v>167.9</v>
       </c>
       <c r="I848" s="9">
-        <v>6.2</v>
+        <v>13.4</v>
       </c>
       <c r="J848" s="12">
         <f t="shared" si="66"/>
-        <v>3.6643026004728139</v>
+        <v>7.3910645339216767</v>
       </c>
       <c r="K848" s="4">
-        <v>156.1</v>
+        <v>154.6</v>
       </c>
       <c r="L848" s="10">
         <f t="shared" si="65"/>
-        <v>13.099999999999994</v>
+        <v>26.700000000000017</v>
       </c>
       <c r="M848" s="13">
         <f t="shared" si="67"/>
-        <v>7.7423167848699741</v>
+        <v>14.726971869829022</v>
       </c>
       <c r="N848" s="4">
-        <v>150.1</v>
+        <v>144</v>
       </c>
       <c r="O848" s="10">
         <f t="shared" si="68"/>
-        <v>19.099999999999994</v>
+        <v>37.300000000000011</v>
       </c>
       <c r="P848" s="13">
         <f t="shared" si="69"/>
-        <v>11.288416075650115</v>
+        <v>20.573634859349148</v>
       </c>
     </row>
     <row r="849" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47291,42 +47291,42 @@
         <v>36</v>
       </c>
       <c r="F849" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G849" s="3">
-        <v>181.3</v>
+        <v>133.19999999999999</v>
       </c>
       <c r="H849" s="4">
-        <v>167.9</v>
+        <v>126.1</v>
       </c>
       <c r="I849" s="9">
-        <v>13.4</v>
+        <v>7.1</v>
       </c>
       <c r="J849" s="12">
         <f t="shared" si="66"/>
-        <v>7.3910645339216767</v>
+        <v>5.3303303303303302</v>
       </c>
       <c r="K849" s="4">
-        <v>154.6</v>
+        <v>119</v>
       </c>
       <c r="L849" s="10">
-        <f t="shared" si="65"/>
-        <v>26.700000000000017</v>
+        <f t="shared" ref="L849:L900" si="70">G849-K849</f>
+        <v>14.199999999999989</v>
       </c>
       <c r="M849" s="13">
         <f t="shared" si="67"/>
-        <v>14.726971869829022</v>
+        <v>10.660660660660653</v>
       </c>
       <c r="N849" s="4">
-        <v>144</v>
+        <v>113.3</v>
       </c>
       <c r="O849" s="10">
         <f t="shared" si="68"/>
-        <v>37.300000000000011</v>
+        <v>19.899999999999991</v>
       </c>
       <c r="P849" s="13">
         <f t="shared" si="69"/>
-        <v>20.573634859349148</v>
+        <v>14.939939939939933</v>
       </c>
     </row>
     <row r="850" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47346,42 +47346,42 @@
         <v>36</v>
       </c>
       <c r="F850" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G850" s="3">
-        <v>133.19999999999999</v>
+        <v>162.6</v>
       </c>
       <c r="H850" s="4">
-        <v>126.1</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="I850" s="9">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="J850" s="12">
         <f t="shared" si="66"/>
-        <v>5.3303303303303302</v>
+        <v>4.1820418204182044</v>
       </c>
       <c r="K850" s="4">
-        <v>119</v>
+        <v>147.80000000000001</v>
       </c>
       <c r="L850" s="10">
-        <f t="shared" ref="L850:L901" si="70">G850-K850</f>
-        <v>14.199999999999989</v>
+        <f t="shared" si="70"/>
+        <v>14.799999999999983</v>
       </c>
       <c r="M850" s="13">
         <f t="shared" si="67"/>
-        <v>10.660660660660653</v>
+        <v>9.1020910209101995</v>
       </c>
       <c r="N850" s="4">
-        <v>113.3</v>
+        <v>141.1</v>
       </c>
       <c r="O850" s="10">
         <f t="shared" si="68"/>
-        <v>19.899999999999991</v>
+        <v>21.5</v>
       </c>
       <c r="P850" s="13">
         <f t="shared" si="69"/>
-        <v>14.939939939939933</v>
+        <v>13.222632226322265</v>
       </c>
     </row>
     <row r="851" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47401,42 +47401,42 @@
         <v>36</v>
       </c>
       <c r="F851" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G851" s="3">
-        <v>162.6</v>
+        <v>135.1</v>
       </c>
       <c r="H851" s="4">
-        <v>155.80000000000001</v>
+        <v>126.8</v>
       </c>
       <c r="I851" s="9">
-        <v>6.8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J851" s="12">
         <f t="shared" si="66"/>
-        <v>4.1820418204182044</v>
+        <v>6.1435973353071809</v>
       </c>
       <c r="K851" s="4">
-        <v>147.80000000000001</v>
+        <v>116.6</v>
       </c>
       <c r="L851" s="10">
         <f t="shared" si="70"/>
-        <v>14.799999999999983</v>
+        <v>18.5</v>
       </c>
       <c r="M851" s="13">
         <f t="shared" si="67"/>
-        <v>9.1020910209101995</v>
+        <v>13.693560325684679</v>
       </c>
       <c r="N851" s="4">
-        <v>141.1</v>
+        <v>108.1</v>
       </c>
       <c r="O851" s="10">
         <f t="shared" si="68"/>
-        <v>21.5</v>
+        <v>27</v>
       </c>
       <c r="P851" s="13">
         <f t="shared" si="69"/>
-        <v>13.222632226322265</v>
+        <v>19.985196150999261</v>
       </c>
     </row>
     <row r="852" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47456,42 +47456,42 @@
         <v>36</v>
       </c>
       <c r="F852" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G852" s="3">
-        <v>135.1</v>
+        <v>139</v>
       </c>
       <c r="H852" s="4">
-        <v>126.8</v>
+        <v>132.9</v>
       </c>
       <c r="I852" s="9">
-        <v>8.3000000000000007</v>
+        <v>6.1</v>
       </c>
       <c r="J852" s="12">
         <f t="shared" si="66"/>
-        <v>6.1435973353071809</v>
+        <v>4.3884892086330929</v>
       </c>
       <c r="K852" s="4">
-        <v>116.6</v>
+        <v>127.1</v>
       </c>
       <c r="L852" s="10">
         <f t="shared" si="70"/>
-        <v>18.5</v>
+        <v>11.900000000000006</v>
       </c>
       <c r="M852" s="13">
         <f t="shared" si="67"/>
-        <v>13.693560325684679</v>
+        <v>8.5611510791366943</v>
       </c>
       <c r="N852" s="4">
-        <v>108.1</v>
+        <v>121.9</v>
       </c>
       <c r="O852" s="10">
         <f t="shared" si="68"/>
-        <v>27</v>
+        <v>17.099999999999994</v>
       </c>
       <c r="P852" s="13">
         <f t="shared" si="69"/>
-        <v>19.985196150999261</v>
+        <v>12.30215827338129</v>
       </c>
     </row>
     <row r="853" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47511,42 +47511,42 @@
         <v>36</v>
       </c>
       <c r="F853" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G853" s="3">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="H853" s="4">
-        <v>132.9</v>
+        <v>154.19999999999999</v>
       </c>
       <c r="I853" s="9">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="J853" s="12">
         <f t="shared" si="66"/>
-        <v>4.3884892086330929</v>
+        <v>3.6249999999999996</v>
       </c>
       <c r="K853" s="4">
-        <v>127.1</v>
+        <v>147</v>
       </c>
       <c r="L853" s="10">
         <f t="shared" si="70"/>
-        <v>11.900000000000006</v>
+        <v>13</v>
       </c>
       <c r="M853" s="13">
         <f t="shared" si="67"/>
-        <v>8.5611510791366943</v>
+        <v>8.125</v>
       </c>
       <c r="N853" s="4">
-        <v>121.9</v>
+        <v>140.9</v>
       </c>
       <c r="O853" s="10">
         <f t="shared" si="68"/>
-        <v>17.099999999999994</v>
+        <v>19.099999999999994</v>
       </c>
       <c r="P853" s="13">
         <f t="shared" si="69"/>
-        <v>12.30215827338129</v>
+        <v>11.937499999999996</v>
       </c>
     </row>
     <row r="854" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47566,42 +47566,42 @@
         <v>36</v>
       </c>
       <c r="F854" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G854" s="3">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="H854" s="4">
-        <v>154.19999999999999</v>
+        <v>159.69999999999999</v>
       </c>
       <c r="I854" s="9">
-        <v>5.8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J854" s="12">
         <f t="shared" si="66"/>
-        <v>3.6249999999999996</v>
+        <v>4.9404761904761907</v>
       </c>
       <c r="K854" s="4">
-        <v>147</v>
+        <v>151.80000000000001</v>
       </c>
       <c r="L854" s="10">
         <f t="shared" si="70"/>
-        <v>13</v>
+        <v>16.199999999999989</v>
       </c>
       <c r="M854" s="13">
         <f t="shared" si="67"/>
-        <v>8.125</v>
+        <v>9.642857142857137</v>
       </c>
       <c r="N854" s="4">
-        <v>140.9</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="O854" s="10">
         <f t="shared" si="68"/>
-        <v>19.099999999999994</v>
+        <v>23.199999999999989</v>
       </c>
       <c r="P854" s="13">
         <f t="shared" si="69"/>
-        <v>11.937499999999996</v>
+        <v>13.809523809523801</v>
       </c>
     </row>
     <row r="855" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47621,42 +47621,42 @@
         <v>36</v>
       </c>
       <c r="F855" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G855" s="3">
-        <v>168</v>
+        <v>145.5</v>
       </c>
       <c r="H855" s="4">
-        <v>159.69999999999999</v>
+        <v>138.30000000000001</v>
       </c>
       <c r="I855" s="9">
-        <v>8.3000000000000007</v>
+        <v>7.2</v>
       </c>
       <c r="J855" s="12">
         <f t="shared" si="66"/>
-        <v>4.9404761904761907</v>
+        <v>4.9484536082474229</v>
       </c>
       <c r="K855" s="4">
-        <v>151.80000000000001</v>
+        <v>130.1</v>
       </c>
       <c r="L855" s="10">
         <f t="shared" si="70"/>
-        <v>16.199999999999989</v>
+        <v>15.400000000000006</v>
       </c>
       <c r="M855" s="13">
         <f t="shared" si="67"/>
-        <v>9.642857142857137</v>
+        <v>10.584192439862546</v>
       </c>
       <c r="N855" s="4">
-        <v>144.80000000000001</v>
+        <v>123.8</v>
       </c>
       <c r="O855" s="10">
         <f t="shared" si="68"/>
-        <v>23.199999999999989</v>
+        <v>21.700000000000003</v>
       </c>
       <c r="P855" s="13">
         <f t="shared" si="69"/>
-        <v>13.809523809523801</v>
+        <v>14.91408934707904</v>
       </c>
     </row>
     <row r="856" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47670,48 +47670,48 @@
         <v>0</v>
       </c>
       <c r="D856" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E856" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F856" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G856" s="3">
-        <v>145.5</v>
+        <v>176.8</v>
       </c>
       <c r="H856" s="4">
-        <v>138.30000000000001</v>
+        <v>160.69999999999999</v>
       </c>
       <c r="I856" s="9">
-        <v>7.2</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="J856" s="12">
         <f t="shared" si="66"/>
-        <v>4.9484536082474229</v>
+        <v>9.1063348416289589</v>
       </c>
       <c r="K856" s="4">
-        <v>130.1</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="L856" s="10">
         <f t="shared" si="70"/>
-        <v>15.400000000000006</v>
+        <v>21</v>
       </c>
       <c r="M856" s="13">
         <f t="shared" si="67"/>
-        <v>10.584192439862546</v>
+        <v>11.877828054298641</v>
       </c>
       <c r="N856" s="4">
-        <v>123.8</v>
+        <v>148.6</v>
       </c>
       <c r="O856" s="10">
         <f t="shared" si="68"/>
-        <v>21.700000000000003</v>
+        <v>28.200000000000017</v>
       </c>
       <c r="P856" s="13">
         <f t="shared" si="69"/>
-        <v>14.91408934707904</v>
+        <v>15.950226244343902</v>
       </c>
     </row>
     <row r="857" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47731,42 +47731,42 @@
         <v>35</v>
       </c>
       <c r="F857" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G857" s="3">
-        <v>176.8</v>
+        <v>168.3</v>
       </c>
       <c r="H857" s="4">
-        <v>160.69999999999999</v>
+        <v>150</v>
       </c>
       <c r="I857" s="9">
-        <v>16.100000000000001</v>
+        <v>18.3</v>
       </c>
       <c r="J857" s="12">
         <f t="shared" si="66"/>
-        <v>9.1063348416289589</v>
+        <v>10.873440285204991</v>
       </c>
       <c r="K857" s="4">
-        <v>155.80000000000001</v>
+        <v>145.1</v>
       </c>
       <c r="L857" s="10">
         <f t="shared" si="70"/>
-        <v>21</v>
+        <v>23.200000000000017</v>
       </c>
       <c r="M857" s="13">
         <f t="shared" si="67"/>
-        <v>11.877828054298641</v>
+        <v>13.784907902554972</v>
       </c>
       <c r="N857" s="4">
-        <v>148.6</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="O857" s="10">
         <f t="shared" si="68"/>
-        <v>28.200000000000017</v>
+        <v>30.600000000000023</v>
       </c>
       <c r="P857" s="13">
         <f t="shared" si="69"/>
-        <v>15.950226244343902</v>
+        <v>18.181818181818194</v>
       </c>
     </row>
     <row r="858" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47786,42 +47786,42 @@
         <v>35</v>
       </c>
       <c r="F858" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G858" s="3">
-        <v>168.3</v>
+        <v>159.6</v>
       </c>
       <c r="H858" s="4">
-        <v>150</v>
+        <v>144.9</v>
       </c>
       <c r="I858" s="9">
-        <v>18.3</v>
+        <v>14.7</v>
       </c>
       <c r="J858" s="12">
         <f t="shared" si="66"/>
-        <v>10.873440285204991</v>
+        <v>9.2105263157894726</v>
       </c>
       <c r="K858" s="4">
-        <v>145.1</v>
+        <v>140.5</v>
       </c>
       <c r="L858" s="10">
         <f t="shared" si="70"/>
-        <v>23.200000000000017</v>
+        <v>19.099999999999994</v>
       </c>
       <c r="M858" s="13">
         <f t="shared" si="67"/>
-        <v>13.784907902554972</v>
+        <v>11.967418546365911</v>
       </c>
       <c r="N858" s="4">
-        <v>137.69999999999999</v>
+        <v>134.4</v>
       </c>
       <c r="O858" s="10">
         <f t="shared" si="68"/>
-        <v>30.600000000000023</v>
+        <v>25.199999999999989</v>
       </c>
       <c r="P858" s="13">
         <f t="shared" si="69"/>
-        <v>18.181818181818194</v>
+        <v>15.78947368421052</v>
       </c>
     </row>
     <row r="859" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47841,42 +47841,42 @@
         <v>35</v>
       </c>
       <c r="F859" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G859" s="3">
-        <v>159.6</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="H859" s="4">
-        <v>144.9</v>
+        <v>116.3</v>
       </c>
       <c r="I859" s="9">
-        <v>14.7</v>
+        <v>15.4</v>
       </c>
       <c r="J859" s="12">
         <f t="shared" si="66"/>
-        <v>9.2105263157894726</v>
+        <v>11.693242217160215</v>
       </c>
       <c r="K859" s="4">
-        <v>140.5</v>
+        <v>113</v>
       </c>
       <c r="L859" s="10">
         <f t="shared" si="70"/>
-        <v>19.099999999999994</v>
+        <v>18.699999999999989</v>
       </c>
       <c r="M859" s="13">
         <f t="shared" si="67"/>
-        <v>11.967418546365911</v>
+        <v>14.198936977980251</v>
       </c>
       <c r="N859" s="4">
-        <v>134.4</v>
+        <v>106.8</v>
       </c>
       <c r="O859" s="10">
         <f t="shared" si="68"/>
-        <v>25.199999999999989</v>
+        <v>24.899999999999991</v>
       </c>
       <c r="P859" s="13">
         <f t="shared" si="69"/>
-        <v>15.78947368421052</v>
+        <v>18.906605922551247</v>
       </c>
     </row>
     <row r="860" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47896,42 +47896,42 @@
         <v>35</v>
       </c>
       <c r="F860" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G860" s="3">
-        <v>131.69999999999999</v>
+        <v>150.80000000000001</v>
       </c>
       <c r="H860" s="4">
-        <v>116.3</v>
+        <v>133.5</v>
       </c>
       <c r="I860" s="9">
-        <v>15.4</v>
+        <v>17.3</v>
       </c>
       <c r="J860" s="12">
         <f t="shared" si="66"/>
-        <v>11.693242217160215</v>
+        <v>11.472148541114057</v>
       </c>
       <c r="K860" s="4">
-        <v>113</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="L860" s="10">
         <f t="shared" si="70"/>
-        <v>18.699999999999989</v>
+        <v>21.600000000000023</v>
       </c>
       <c r="M860" s="13">
         <f t="shared" si="67"/>
-        <v>14.198936977980251</v>
+        <v>14.323607427055718</v>
       </c>
       <c r="N860" s="4">
-        <v>106.8</v>
+        <v>123</v>
       </c>
       <c r="O860" s="10">
         <f t="shared" si="68"/>
-        <v>24.899999999999991</v>
+        <v>27.800000000000011</v>
       </c>
       <c r="P860" s="13">
         <f t="shared" si="69"/>
-        <v>18.906605922551247</v>
+        <v>18.435013262599476</v>
       </c>
     </row>
     <row r="861" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -47951,42 +47951,42 @@
         <v>35</v>
       </c>
       <c r="F861" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G861" s="3">
-        <v>150.80000000000001</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="H861" s="4">
-        <v>133.5</v>
+        <v>131</v>
       </c>
       <c r="I861" s="9">
-        <v>17.3</v>
+        <v>12.3</v>
       </c>
       <c r="J861" s="12">
         <f t="shared" si="66"/>
-        <v>11.472148541114057</v>
+        <v>8.5833914863921841</v>
       </c>
       <c r="K861" s="4">
-        <v>129.19999999999999</v>
+        <v>127.2</v>
       </c>
       <c r="L861" s="10">
         <f t="shared" si="70"/>
-        <v>21.600000000000023</v>
+        <v>16.100000000000009</v>
       </c>
       <c r="M861" s="13">
         <f t="shared" si="67"/>
-        <v>14.323607427055718</v>
+        <v>11.235170969993026</v>
       </c>
       <c r="N861" s="4">
-        <v>123</v>
+        <v>122.1</v>
       </c>
       <c r="O861" s="10">
         <f t="shared" si="68"/>
-        <v>27.800000000000011</v>
+        <v>21.200000000000017</v>
       </c>
       <c r="P861" s="13">
         <f t="shared" si="69"/>
-        <v>18.435013262599476</v>
+        <v>14.794138171667839</v>
       </c>
     </row>
     <row r="862" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -48006,42 +48006,42 @@
         <v>35</v>
       </c>
       <c r="F862" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G862" s="3">
-        <v>143.30000000000001</v>
+        <v>136.19999999999999</v>
       </c>
       <c r="H862" s="4">
-        <v>131</v>
+        <v>121.3</v>
       </c>
       <c r="I862" s="9">
-        <v>12.3</v>
+        <v>14.9</v>
       </c>
       <c r="J862" s="12">
         <f t="shared" si="66"/>
-        <v>8.5833914863921841</v>
+        <v>10.939794419970633</v>
       </c>
       <c r="K862" s="4">
-        <v>127.2</v>
+        <v>117.4</v>
       </c>
       <c r="L862" s="10">
         <f t="shared" si="70"/>
-        <v>16.100000000000009</v>
+        <v>18.799999999999983</v>
       </c>
       <c r="M862" s="13">
         <f t="shared" si="67"/>
-        <v>11.235170969993026</v>
+        <v>13.803230543318637</v>
       </c>
       <c r="N862" s="4">
-        <v>122.1</v>
+        <v>111.8</v>
       </c>
       <c r="O862" s="10">
         <f t="shared" si="68"/>
-        <v>21.200000000000017</v>
+        <v>24.399999999999991</v>
       </c>
       <c r="P862" s="13">
         <f t="shared" si="69"/>
-        <v>14.794138171667839</v>
+        <v>17.914831130690157</v>
       </c>
     </row>
     <row r="863" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -48061,42 +48061,42 @@
         <v>35</v>
       </c>
       <c r="F863" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G863" s="3">
-        <v>136.19999999999999</v>
+        <v>181.6</v>
       </c>
       <c r="H863" s="4">
-        <v>121.3</v>
+        <v>168.3</v>
       </c>
       <c r="I863" s="9">
-        <v>14.9</v>
+        <v>13.3</v>
       </c>
       <c r="J863" s="12">
         <f t="shared" si="66"/>
-        <v>10.939794419970633</v>
+        <v>7.323788546255507</v>
       </c>
       <c r="K863" s="4">
-        <v>117.4</v>
+        <v>165</v>
       </c>
       <c r="L863" s="10">
         <f t="shared" si="70"/>
-        <v>18.799999999999983</v>
+        <v>16.599999999999994</v>
       </c>
       <c r="M863" s="13">
         <f t="shared" si="67"/>
-        <v>13.803230543318637</v>
+        <v>9.1409691629955923</v>
       </c>
       <c r="N863" s="4">
-        <v>111.8</v>
+        <v>160.19999999999999</v>
       </c>
       <c r="O863" s="10">
         <f t="shared" si="68"/>
-        <v>24.399999999999991</v>
+        <v>21.400000000000006</v>
       </c>
       <c r="P863" s="13">
         <f t="shared" si="69"/>
-        <v>17.914831130690157</v>
+        <v>11.784140969162999</v>
       </c>
     </row>
     <row r="864" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -48116,42 +48116,42 @@
         <v>35</v>
       </c>
       <c r="F864" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G864" s="3">
-        <v>181.6</v>
+        <v>146.30000000000001</v>
       </c>
       <c r="H864" s="4">
-        <v>168.3</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="I864" s="9">
-        <v>13.3</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="J864" s="12">
         <f t="shared" si="66"/>
-        <v>7.323788546255507</v>
+        <v>11.346548188653452</v>
       </c>
       <c r="K864" s="4">
-        <v>165</v>
+        <v>125.2</v>
       </c>
       <c r="L864" s="10">
         <f t="shared" si="70"/>
-        <v>16.599999999999994</v>
+        <v>21.100000000000009</v>
       </c>
       <c r="M864" s="13">
         <f t="shared" si="67"/>
-        <v>9.1409691629955923</v>
+        <v>14.422419685577584</v>
       </c>
       <c r="N864" s="4">
-        <v>160.19999999999999</v>
+        <v>118.6</v>
       </c>
       <c r="O864" s="10">
         <f t="shared" si="68"/>
-        <v>21.400000000000006</v>
+        <v>27.700000000000017</v>
       </c>
       <c r="P864" s="13">
         <f t="shared" si="69"/>
-        <v>11.784140969162999</v>
+        <v>18.933697881066315</v>
       </c>
     </row>
     <row r="865" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -48171,42 +48171,42 @@
         <v>35</v>
       </c>
       <c r="F865" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G865" s="3">
-        <v>146.30000000000001</v>
+        <v>168.3</v>
       </c>
       <c r="H865" s="4">
-        <v>129.69999999999999</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="I865" s="9">
-        <v>16.600000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="J865" s="12">
         <f t="shared" si="66"/>
-        <v>11.346548188653452</v>
+        <v>6.5953654188948301</v>
       </c>
       <c r="K865" s="4">
-        <v>125.2</v>
+        <v>153.4</v>
       </c>
       <c r="L865" s="10">
         <f t="shared" si="70"/>
-        <v>21.100000000000009</v>
+        <v>14.900000000000006</v>
       </c>
       <c r="M865" s="13">
         <f t="shared" si="67"/>
-        <v>14.422419685577584</v>
+        <v>8.8532382650029735</v>
       </c>
       <c r="N865" s="4">
-        <v>118.6</v>
+        <v>148</v>
       </c>
       <c r="O865" s="10">
         <f t="shared" si="68"/>
-        <v>27.700000000000017</v>
+        <v>20.300000000000011</v>
       </c>
       <c r="P865" s="13">
         <f t="shared" si="69"/>
-        <v>18.933697881066315</v>
+        <v>12.061794414735596</v>
       </c>
     </row>
     <row r="866" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -48226,42 +48226,42 @@
         <v>35</v>
       </c>
       <c r="F866" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G866" s="3">
-        <v>168.3</v>
+        <v>145.69999999999999</v>
       </c>
       <c r="H866" s="4">
-        <v>157.19999999999999</v>
+        <v>132.4</v>
       </c>
       <c r="I866" s="9">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="J866" s="12">
         <f t="shared" si="66"/>
-        <v>6.5953654188948301</v>
+        <v>9.1283459162663014</v>
       </c>
       <c r="K866" s="4">
-        <v>153.4</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="L866" s="10">
         <f t="shared" si="70"/>
-        <v>14.900000000000006</v>
+        <v>17.5</v>
       </c>
       <c r="M866" s="13">
         <f t="shared" si="67"/>
-        <v>8.8532382650029735</v>
+        <v>12.010981468771449</v>
       </c>
       <c r="N866" s="4">
-        <v>148</v>
+        <v>122.9</v>
       </c>
       <c r="O866" s="10">
         <f t="shared" si="68"/>
-        <v>20.300000000000011</v>
+        <v>22.799999999999983</v>
       </c>
       <c r="P866" s="13">
         <f t="shared" si="69"/>
-        <v>12.061794414735596</v>
+        <v>15.648592999313649</v>
       </c>
     </row>
     <row r="867" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -48281,42 +48281,42 @@
         <v>35</v>
       </c>
       <c r="F867" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G867" s="3">
-        <v>145.69999999999999</v>
+        <v>129.4</v>
       </c>
       <c r="H867" s="4">
-        <v>132.4</v>
+        <v>116.3</v>
       </c>
       <c r="I867" s="9">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="J867" s="12">
         <f t="shared" si="66"/>
-        <v>9.1283459162663014</v>
+        <v>10.123647604327665</v>
       </c>
       <c r="K867" s="4">
-        <v>128.19999999999999</v>
+        <v>112.1</v>
       </c>
       <c r="L867" s="10">
         <f t="shared" si="70"/>
-        <v>17.5</v>
+        <v>17.300000000000011</v>
       </c>
       <c r="M867" s="13">
         <f t="shared" si="67"/>
-        <v>12.010981468771449</v>
+        <v>13.36939721792891</v>
       </c>
       <c r="N867" s="4">
-        <v>122.9</v>
+        <v>106.4</v>
       </c>
       <c r="O867" s="10">
         <f t="shared" si="68"/>
-        <v>22.799999999999983</v>
+        <v>23</v>
       </c>
       <c r="P867" s="13">
         <f t="shared" si="69"/>
-        <v>15.648592999313649</v>
+        <v>17.77434312210201</v>
       </c>
     </row>
     <row r="868" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -48336,42 +48336,42 @@
         <v>35</v>
       </c>
       <c r="F868" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G868" s="3">
-        <v>129.4</v>
+        <v>178.7</v>
       </c>
       <c r="H868" s="4">
-        <v>116.3</v>
+        <v>165.6</v>
       </c>
       <c r="I868" s="9">
         <v>13.1</v>
       </c>
       <c r="J868" s="12">
         <f t="shared" si="66"/>
-        <v>10.123647604327665</v>
+        <v>7.3307218802462231</v>
       </c>
       <c r="K868" s="4">
-        <v>112.1</v>
+        <v>162.19999999999999</v>
       </c>
       <c r="L868" s="10">
         <f t="shared" si="70"/>
-        <v>17.300000000000011</v>
+        <v>16.5</v>
       </c>
       <c r="M868" s="13">
         <f t="shared" si="67"/>
-        <v>13.36939721792891</v>
+        <v>9.2333519865696694</v>
       </c>
       <c r="N868" s="4">
-        <v>106.4</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="O868" s="10">
         <f t="shared" si="68"/>
-        <v>23</v>
+        <v>21.399999999999977</v>
       </c>
       <c r="P868" s="13">
         <f t="shared" si="69"/>
-        <v>17.77434312210201</v>
+        <v>11.975377728035802</v>
       </c>
     </row>
     <row r="869" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -48391,42 +48391,42 @@
         <v>35</v>
       </c>
       <c r="F869" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G869" s="3">
-        <v>178.7</v>
+        <v>178.6</v>
       </c>
       <c r="H869" s="4">
-        <v>165.6</v>
+        <v>162.69999999999999</v>
       </c>
       <c r="I869" s="9">
-        <v>13.1</v>
+        <v>15.9</v>
       </c>
       <c r="J869" s="12">
         <f t="shared" si="66"/>
-        <v>7.3307218802462231</v>
+        <v>8.9025755879059343</v>
       </c>
       <c r="K869" s="4">
-        <v>162.19999999999999</v>
+        <v>157.4</v>
       </c>
       <c r="L869" s="10">
         <f t="shared" si="70"/>
-        <v>16.5</v>
+        <v>21.199999999999989</v>
       </c>
       <c r="M869" s="13">
         <f t="shared" si="67"/>
-        <v>9.2333519865696694</v>
+        <v>11.870100783874573</v>
       </c>
       <c r="N869" s="4">
-        <v>157.30000000000001</v>
+        <v>150.6</v>
       </c>
       <c r="O869" s="10">
         <f t="shared" si="68"/>
-        <v>21.399999999999977</v>
+        <v>28</v>
       </c>
       <c r="P869" s="13">
         <f t="shared" si="69"/>
-        <v>11.975377728035802</v>
+        <v>15.677491601343785</v>
       </c>
     </row>
     <row r="870" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -48446,42 +48446,42 @@
         <v>35</v>
       </c>
       <c r="F870" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G870" s="3">
-        <v>178.6</v>
+        <v>149.6</v>
       </c>
       <c r="H870" s="4">
-        <v>162.69999999999999</v>
+        <v>135.4</v>
       </c>
       <c r="I870" s="9">
-        <v>15.9</v>
+        <v>14.2</v>
       </c>
       <c r="J870" s="12">
         <f t="shared" si="66"/>
-        <v>8.9025755879059343</v>
+        <v>9.4919786096256686</v>
       </c>
       <c r="K870" s="4">
-        <v>157.4</v>
+        <v>131.19999999999999</v>
       </c>
       <c r="L870" s="10">
         <f t="shared" si="70"/>
-        <v>21.199999999999989</v>
+        <v>18.400000000000006</v>
       </c>
       <c r="M870" s="13">
         <f t="shared" si="67"/>
-        <v>11.870100783874573</v>
+        <v>12.299465240641716</v>
       </c>
       <c r="N870" s="4">
-        <v>150.6</v>
+        <v>125.6</v>
       </c>
       <c r="O870" s="10">
         <f t="shared" si="68"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P870" s="13">
         <f t="shared" si="69"/>
-        <v>15.677491601343785</v>
+        <v>16.042780748663102</v>
       </c>
     </row>
     <row r="871" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -48492,51 +48492,51 @@
         <v>6</v>
       </c>
       <c r="C871" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D871" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E871" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F871" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G871" s="3">
-        <v>149.6</v>
+        <v>205.8</v>
       </c>
       <c r="H871" s="4">
-        <v>135.4</v>
+        <v>191.9</v>
       </c>
       <c r="I871" s="9">
-        <v>14.2</v>
+        <v>13.9</v>
       </c>
       <c r="J871" s="12">
         <f t="shared" si="66"/>
-        <v>9.4919786096256686</v>
+        <v>6.7541302235179792</v>
       </c>
       <c r="K871" s="4">
-        <v>131.19999999999999</v>
+        <v>185.5</v>
       </c>
       <c r="L871" s="10">
         <f t="shared" si="70"/>
-        <v>18.400000000000006</v>
+        <v>20.300000000000011</v>
       </c>
       <c r="M871" s="13">
         <f t="shared" si="67"/>
-        <v>12.299465240641716</v>
+        <v>9.8639455782312986</v>
       </c>
       <c r="N871" s="4">
-        <v>125.6</v>
+        <v>175.8</v>
       </c>
       <c r="O871" s="10">
         <f t="shared" si="68"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="P871" s="13">
         <f t="shared" si="69"/>
-        <v>16.042780748663102</v>
+        <v>14.577259475218657</v>
       </c>
     </row>
     <row r="872" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -48556,42 +48556,42 @@
         <v>34</v>
       </c>
       <c r="F872" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G872" s="3">
-        <v>205.8</v>
+        <v>154.5</v>
       </c>
       <c r="H872" s="4">
-        <v>191.9</v>
+        <v>141.19999999999999</v>
       </c>
       <c r="I872" s="9">
-        <v>13.9</v>
+        <v>13.3</v>
       </c>
       <c r="J872" s="12">
         <f t="shared" si="66"/>
-        <v>6.7541302235179792</v>
+        <v>8.608414239482201</v>
       </c>
       <c r="K872" s="4">
-        <v>185.5</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="L872" s="10">
         <f t="shared" si="70"/>
-        <v>20.300000000000011</v>
+        <v>20.199999999999989</v>
       </c>
       <c r="M872" s="13">
         <f t="shared" si="67"/>
-        <v>9.8639455782312986</v>
+        <v>13.07443365695792</v>
       </c>
       <c r="N872" s="4">
-        <v>175.8</v>
+        <v>125.2</v>
       </c>
       <c r="O872" s="10">
         <f t="shared" si="68"/>
-        <v>30</v>
+        <v>29.299999999999997</v>
       </c>
       <c r="P872" s="13">
         <f t="shared" si="69"/>
-        <v>14.577259475218657</v>
+        <v>18.96440129449838</v>
       </c>
     </row>
     <row r="873" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -48611,42 +48611,42 @@
         <v>34</v>
       </c>
       <c r="F873" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G873" s="3">
-        <v>154.5</v>
+        <v>189.8</v>
       </c>
       <c r="H873" s="4">
-        <v>141.19999999999999</v>
+        <v>181.7</v>
       </c>
       <c r="I873" s="9">
-        <v>13.3</v>
+        <v>8.1</v>
       </c>
       <c r="J873" s="12">
         <f t="shared" si="66"/>
-        <v>8.608414239482201</v>
+        <v>4.2676501580611159</v>
       </c>
       <c r="K873" s="4">
-        <v>134.30000000000001</v>
+        <v>177.1</v>
       </c>
       <c r="L873" s="10">
         <f t="shared" si="70"/>
-        <v>20.199999999999989</v>
+        <v>12.700000000000017</v>
       </c>
       <c r="M873" s="13">
         <f t="shared" si="67"/>
-        <v>13.07443365695792</v>
+        <v>6.6912539515279326</v>
       </c>
       <c r="N873" s="4">
-        <v>125.2</v>
+        <v>171.3</v>
       </c>
       <c r="O873" s="10">
         <f t="shared" si="68"/>
-        <v>29.299999999999997</v>
+        <v>18.5</v>
       </c>
       <c r="P873" s="13">
         <f t="shared" si="69"/>
-        <v>18.96440129449838</v>
+        <v>9.747102212855637</v>
       </c>
     </row>
     <row r="874" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -48666,42 +48666,42 @@
         <v>34</v>
       </c>
       <c r="F874" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G874" s="3">
-        <v>189.8</v>
+        <v>177.8</v>
       </c>
       <c r="H874" s="4">
-        <v>181.7</v>
+        <v>165.9</v>
       </c>
       <c r="I874" s="9">
-        <v>8.1</v>
+        <v>11.9</v>
       </c>
       <c r="J874" s="12">
         <f t="shared" si="66"/>
-        <v>4.2676501580611159</v>
+        <v>6.6929133858267704</v>
       </c>
       <c r="K874" s="4">
-        <v>177.1</v>
+        <v>160.1</v>
       </c>
       <c r="L874" s="10">
         <f t="shared" si="70"/>
-        <v>12.700000000000017</v>
+        <v>17.700000000000017</v>
       </c>
       <c r="M874" s="13">
         <f t="shared" si="67"/>
-        <v>6.6912539515279326</v>
+        <v>9.9550056242969713</v>
       </c>
       <c r="N874" s="4">
-        <v>171.3</v>
+        <v>151.80000000000001</v>
       </c>
       <c r="O874" s="10">
         <f t="shared" si="68"/>
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="P874" s="13">
         <f t="shared" si="69"/>
-        <v>9.747102212855637</v>
+        <v>14.623172103487065</v>
       </c>
     </row>
     <row r="875" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -48721,42 +48721,42 @@
         <v>34</v>
       </c>
       <c r="F875" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G875" s="3">
-        <v>177.8</v>
+        <v>190.7</v>
       </c>
       <c r="H875" s="4">
-        <v>165.9</v>
+        <v>181.6</v>
       </c>
       <c r="I875" s="9">
-        <v>11.9</v>
+        <v>9.1</v>
       </c>
       <c r="J875" s="12">
         <f t="shared" si="66"/>
-        <v>6.6929133858267704</v>
+        <v>4.7718930256948084</v>
       </c>
       <c r="K875" s="4">
-        <v>160.1</v>
+        <v>176.6</v>
       </c>
       <c r="L875" s="10">
         <f t="shared" si="70"/>
-        <v>17.700000000000017</v>
+        <v>14.099999999999994</v>
       </c>
       <c r="M875" s="13">
         <f t="shared" si="67"/>
-        <v>9.9550056242969713</v>
+        <v>7.393812270582063</v>
       </c>
       <c r="N875" s="4">
-        <v>151.80000000000001</v>
+        <v>169.6</v>
       </c>
       <c r="O875" s="10">
         <f t="shared" si="68"/>
-        <v>26</v>
+        <v>21.099999999999994</v>
       </c>
       <c r="P875" s="13">
         <f t="shared" si="69"/>
-        <v>14.623172103487065</v>
+        <v>11.064499213424224</v>
       </c>
     </row>
     <row r="876" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -48776,42 +48776,42 @@
         <v>34</v>
       </c>
       <c r="F876" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G876" s="3">
-        <v>190.7</v>
+        <v>165.5</v>
       </c>
       <c r="H876" s="4">
-        <v>181.6</v>
+        <v>157</v>
       </c>
       <c r="I876" s="9">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="J876" s="12">
         <f t="shared" si="66"/>
-        <v>4.7718930256948084</v>
+        <v>5.1359516616314203</v>
       </c>
       <c r="K876" s="4">
-        <v>176.6</v>
+        <v>152.6</v>
       </c>
       <c r="L876" s="10">
         <f t="shared" si="70"/>
-        <v>14.099999999999994</v>
+        <v>12.900000000000006</v>
       </c>
       <c r="M876" s="13">
         <f t="shared" si="67"/>
-        <v>7.393812270582063</v>
+        <v>7.7945619335347462</v>
       </c>
       <c r="N876" s="4">
-        <v>169.6</v>
+        <v>146.6</v>
       </c>
       <c r="O876" s="10">
         <f t="shared" si="68"/>
-        <v>21.099999999999994</v>
+        <v>18.900000000000006</v>
       </c>
       <c r="P876" s="13">
         <f t="shared" si="69"/>
-        <v>11.064499213424224</v>
+        <v>11.419939577039278</v>
       </c>
     </row>
     <row r="877" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -48831,42 +48831,42 @@
         <v>34</v>
       </c>
       <c r="F877" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G877" s="3">
-        <v>165.5</v>
+        <v>158.80000000000001</v>
       </c>
       <c r="H877" s="4">
-        <v>157</v>
+        <v>145.69999999999999</v>
       </c>
       <c r="I877" s="9">
-        <v>8.5</v>
+        <v>13.1</v>
       </c>
       <c r="J877" s="12">
         <f t="shared" si="66"/>
-        <v>5.1359516616314203</v>
+        <v>8.2493702770780839</v>
       </c>
       <c r="K877" s="4">
-        <v>152.6</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="L877" s="10">
         <f t="shared" si="70"/>
-        <v>12.900000000000006</v>
+        <v>19.5</v>
       </c>
       <c r="M877" s="13">
         <f t="shared" si="67"/>
-        <v>7.7945619335347462</v>
+        <v>12.279596977329973</v>
       </c>
       <c r="N877" s="4">
-        <v>146.6</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="O877" s="10">
         <f t="shared" si="68"/>
-        <v>18.900000000000006</v>
+        <v>28</v>
       </c>
       <c r="P877" s="13">
         <f t="shared" si="69"/>
-        <v>11.419939577039278</v>
+        <v>17.632241813602015</v>
       </c>
     </row>
     <row r="878" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -48886,42 +48886,42 @@
         <v>34</v>
       </c>
       <c r="F878" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G878" s="3">
         <v>158.80000000000001</v>
       </c>
       <c r="H878" s="4">
-        <v>145.69999999999999</v>
+        <v>144.19999999999999</v>
       </c>
       <c r="I878" s="9">
-        <v>13.1</v>
+        <v>14.6</v>
       </c>
       <c r="J878" s="12">
         <f t="shared" si="66"/>
-        <v>8.2493702770780839</v>
+        <v>9.1939546599496218</v>
       </c>
       <c r="K878" s="4">
-        <v>139.30000000000001</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="L878" s="10">
         <f t="shared" si="70"/>
-        <v>19.5</v>
+        <v>21.600000000000023</v>
       </c>
       <c r="M878" s="13">
         <f t="shared" si="67"/>
-        <v>12.279596977329973</v>
+        <v>13.602015113350138</v>
       </c>
       <c r="N878" s="4">
-        <v>130.80000000000001</v>
+        <v>128.69999999999999</v>
       </c>
       <c r="O878" s="10">
         <f t="shared" si="68"/>
-        <v>28</v>
+        <v>30.100000000000023</v>
       </c>
       <c r="P878" s="13">
         <f t="shared" si="69"/>
-        <v>17.632241813602015</v>
+        <v>18.954659949622179</v>
       </c>
     </row>
     <row r="879" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -48941,42 +48941,42 @@
         <v>34</v>
       </c>
       <c r="F879" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G879" s="3">
-        <v>158.80000000000001</v>
+        <v>161.19999999999999</v>
       </c>
       <c r="H879" s="4">
-        <v>144.19999999999999</v>
+        <v>151</v>
       </c>
       <c r="I879" s="9">
-        <v>14.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="J879" s="12">
         <f t="shared" si="66"/>
-        <v>9.1939546599496218</v>
+        <v>6.3275434243176178</v>
       </c>
       <c r="K879" s="4">
-        <v>137.19999999999999</v>
+        <v>145.69999999999999</v>
       </c>
       <c r="L879" s="10">
         <f t="shared" si="70"/>
-        <v>21.600000000000023</v>
+        <v>15.5</v>
       </c>
       <c r="M879" s="13">
         <f t="shared" si="67"/>
-        <v>13.602015113350138</v>
+        <v>9.6153846153846168</v>
       </c>
       <c r="N879" s="4">
-        <v>128.69999999999999</v>
+        <v>138.5</v>
       </c>
       <c r="O879" s="10">
         <f t="shared" si="68"/>
-        <v>30.100000000000023</v>
+        <v>22.699999999999989</v>
       </c>
       <c r="P879" s="13">
         <f t="shared" si="69"/>
-        <v>18.954659949622179</v>
+        <v>14.081885856079399</v>
       </c>
     </row>
     <row r="880" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -48996,42 +48996,42 @@
         <v>34</v>
       </c>
       <c r="F880" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G880" s="3">
-        <v>161.19999999999999</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="H880" s="4">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I880" s="9">
-        <v>10.199999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="J880" s="12">
         <f t="shared" si="66"/>
-        <v>6.3275434243176178</v>
+        <v>7.2296865003198967</v>
       </c>
       <c r="K880" s="4">
-        <v>145.69999999999999</v>
+        <v>138.1</v>
       </c>
       <c r="L880" s="10">
         <f t="shared" si="70"/>
-        <v>15.5</v>
+        <v>18.200000000000017</v>
       </c>
       <c r="M880" s="13">
         <f t="shared" si="67"/>
-        <v>9.6153846153846168</v>
+        <v>11.644273832373649</v>
       </c>
       <c r="N880" s="4">
-        <v>138.5</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="O880" s="10">
         <f t="shared" si="68"/>
-        <v>22.699999999999989</v>
+        <v>26.5</v>
       </c>
       <c r="P880" s="13">
         <f t="shared" si="69"/>
-        <v>14.081885856079399</v>
+        <v>16.954574536148431</v>
       </c>
     </row>
     <row r="881" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -49051,42 +49051,42 @@
         <v>34</v>
       </c>
       <c r="F881" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G881" s="3">
-        <v>156.30000000000001</v>
+        <v>182.8</v>
       </c>
       <c r="H881" s="4">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="I881" s="9">
-        <v>11.3</v>
+        <v>12.8</v>
       </c>
       <c r="J881" s="12">
         <f t="shared" si="66"/>
-        <v>7.2296865003198967</v>
+        <v>7.0021881838074398</v>
       </c>
       <c r="K881" s="4">
-        <v>138.1</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="L881" s="10">
         <f t="shared" si="70"/>
-        <v>18.200000000000017</v>
+        <v>19</v>
       </c>
       <c r="M881" s="13">
         <f t="shared" si="67"/>
-        <v>11.644273832373649</v>
+        <v>10.393873085339168</v>
       </c>
       <c r="N881" s="4">
-        <v>129.80000000000001</v>
+        <v>155.6</v>
       </c>
       <c r="O881" s="10">
         <f t="shared" si="68"/>
-        <v>26.5</v>
+        <v>27.200000000000017</v>
       </c>
       <c r="P881" s="13">
         <f t="shared" si="69"/>
-        <v>16.954574536148431</v>
+        <v>14.879649890590818</v>
       </c>
     </row>
     <row r="882" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -49106,42 +49106,42 @@
         <v>34</v>
       </c>
       <c r="F882" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G882" s="3">
-        <v>182.8</v>
+        <v>190.3</v>
       </c>
       <c r="H882" s="4">
-        <v>170</v>
+        <v>179.7</v>
       </c>
       <c r="I882" s="9">
-        <v>12.8</v>
+        <v>10.6</v>
       </c>
       <c r="J882" s="12">
         <f t="shared" si="66"/>
-        <v>7.0021881838074398</v>
+        <v>5.5701523909616393</v>
       </c>
       <c r="K882" s="4">
-        <v>163.80000000000001</v>
+        <v>174.2</v>
       </c>
       <c r="L882" s="10">
         <f t="shared" si="70"/>
-        <v>19</v>
+        <v>16.100000000000023</v>
       </c>
       <c r="M882" s="13">
         <f t="shared" si="67"/>
-        <v>10.393873085339168</v>
+        <v>8.4603258013662757</v>
       </c>
       <c r="N882" s="4">
-        <v>155.6</v>
+        <v>166</v>
       </c>
       <c r="O882" s="10">
         <f t="shared" si="68"/>
-        <v>27.200000000000017</v>
+        <v>24.300000000000011</v>
       </c>
       <c r="P882" s="13">
         <f t="shared" si="69"/>
-        <v>14.879649890590818</v>
+        <v>12.769311613242254</v>
       </c>
     </row>
     <row r="883" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -49161,42 +49161,42 @@
         <v>34</v>
       </c>
       <c r="F883" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G883" s="3">
-        <v>190.3</v>
+        <v>206.5</v>
       </c>
       <c r="H883" s="4">
-        <v>179.7</v>
+        <v>194.6</v>
       </c>
       <c r="I883" s="9">
-        <v>10.6</v>
+        <v>11.9</v>
       </c>
       <c r="J883" s="12">
         <f t="shared" si="66"/>
-        <v>5.5701523909616393</v>
+        <v>5.7627118644067794</v>
       </c>
       <c r="K883" s="4">
-        <v>174.2</v>
+        <v>187.8</v>
       </c>
       <c r="L883" s="10">
         <f t="shared" si="70"/>
-        <v>16.100000000000023</v>
+        <v>18.699999999999989</v>
       </c>
       <c r="M883" s="13">
         <f t="shared" si="67"/>
-        <v>8.4603258013662757</v>
+        <v>9.0556900726392193</v>
       </c>
       <c r="N883" s="4">
-        <v>166</v>
+        <v>178.6</v>
       </c>
       <c r="O883" s="10">
         <f t="shared" si="68"/>
-        <v>24.300000000000011</v>
+        <v>27.900000000000006</v>
       </c>
       <c r="P883" s="13">
         <f t="shared" si="69"/>
-        <v>12.769311613242254</v>
+        <v>13.510895883777243</v>
       </c>
     </row>
     <row r="884" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -49216,42 +49216,42 @@
         <v>34</v>
       </c>
       <c r="F884" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G884" s="3">
-        <v>206.5</v>
+        <v>194.3</v>
       </c>
       <c r="H884" s="4">
-        <v>194.6</v>
+        <v>183</v>
       </c>
       <c r="I884" s="9">
-        <v>11.9</v>
+        <v>11.3</v>
       </c>
       <c r="J884" s="12">
         <f t="shared" si="66"/>
-        <v>5.7627118644067794</v>
+        <v>5.8157488419969123</v>
       </c>
       <c r="K884" s="4">
-        <v>187.8</v>
+        <v>176.1</v>
       </c>
       <c r="L884" s="10">
         <f t="shared" si="70"/>
-        <v>18.699999999999989</v>
+        <v>18.200000000000017</v>
       </c>
       <c r="M884" s="13">
         <f t="shared" si="67"/>
-        <v>9.0556900726392193</v>
+        <v>9.3669583118888404</v>
       </c>
       <c r="N884" s="4">
-        <v>178.6</v>
+        <v>166.7</v>
       </c>
       <c r="O884" s="10">
         <f t="shared" si="68"/>
-        <v>27.900000000000006</v>
+        <v>27.600000000000023</v>
       </c>
       <c r="P884" s="13">
         <f t="shared" si="69"/>
-        <v>13.510895883777243</v>
+        <v>14.204837879567689</v>
       </c>
     </row>
     <row r="885" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -49271,42 +49271,42 @@
         <v>34</v>
       </c>
       <c r="F885" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G885" s="3">
-        <v>194.3</v>
+        <v>146.9</v>
       </c>
       <c r="H885" s="4">
-        <v>183</v>
+        <v>138.9</v>
       </c>
       <c r="I885" s="9">
-        <v>11.3</v>
+        <v>8</v>
       </c>
       <c r="J885" s="12">
         <f t="shared" si="66"/>
-        <v>5.8157488419969123</v>
+        <v>5.4458815520762416</v>
       </c>
       <c r="K885" s="4">
-        <v>176.1</v>
+        <v>134.5</v>
       </c>
       <c r="L885" s="10">
         <f t="shared" si="70"/>
-        <v>18.200000000000017</v>
+        <v>12.400000000000006</v>
       </c>
       <c r="M885" s="13">
         <f t="shared" si="67"/>
-        <v>9.3669583118888404</v>
+        <v>8.44111640571818</v>
       </c>
       <c r="N885" s="4">
-        <v>166.7</v>
+        <v>128.69999999999999</v>
       </c>
       <c r="O885" s="10">
         <f t="shared" si="68"/>
-        <v>27.600000000000023</v>
+        <v>18.200000000000017</v>
       </c>
       <c r="P885" s="13">
         <f t="shared" si="69"/>
-        <v>14.204837879567689</v>
+        <v>12.389380530973462</v>
       </c>
     </row>
     <row r="886" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -49320,48 +49320,48 @@
         <v>1</v>
       </c>
       <c r="D886" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E886" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F886" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G886" s="3">
-        <v>146.9</v>
+        <v>208.6</v>
       </c>
       <c r="H886" s="4">
-        <v>138.9</v>
+        <v>182.4</v>
       </c>
       <c r="I886" s="9">
-        <v>8</v>
+        <v>26.2</v>
       </c>
       <c r="J886" s="12">
         <f t="shared" si="66"/>
-        <v>5.4458815520762416</v>
+        <v>12.559923298178333</v>
       </c>
       <c r="K886" s="4">
-        <v>134.5</v>
+        <v>171.3</v>
       </c>
       <c r="L886" s="10">
         <f t="shared" si="70"/>
-        <v>12.400000000000006</v>
+        <v>37.299999999999983</v>
       </c>
       <c r="M886" s="13">
         <f t="shared" si="67"/>
-        <v>8.44111640571818</v>
+        <v>17.881112176414181</v>
       </c>
       <c r="N886" s="4">
-        <v>128.69999999999999</v>
+        <v>164.6</v>
       </c>
       <c r="O886" s="10">
         <f t="shared" si="68"/>
-        <v>18.200000000000017</v>
+        <v>44</v>
       </c>
       <c r="P886" s="13">
         <f t="shared" si="69"/>
-        <v>12.389380530973462</v>
+        <v>21.09300095877277</v>
       </c>
     </row>
     <row r="887" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -49381,42 +49381,42 @@
         <v>33</v>
       </c>
       <c r="F887" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G887" s="3">
-        <v>208.6</v>
+        <v>190.9</v>
       </c>
       <c r="H887" s="4">
-        <v>182.4</v>
+        <v>171.5</v>
       </c>
       <c r="I887" s="9">
-        <v>26.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="J887" s="12">
         <f t="shared" si="66"/>
-        <v>12.559923298178333</v>
+        <v>10.162388685175483</v>
       </c>
       <c r="K887" s="4">
-        <v>171.3</v>
+        <v>162</v>
       </c>
       <c r="L887" s="10">
         <f t="shared" si="70"/>
-        <v>37.299999999999983</v>
+        <v>28.900000000000006</v>
       </c>
       <c r="M887" s="13">
         <f t="shared" si="67"/>
-        <v>17.881112176414181</v>
+        <v>15.138816134101626</v>
       </c>
       <c r="N887" s="4">
-        <v>164.6</v>
+        <v>157.1</v>
       </c>
       <c r="O887" s="10">
         <f t="shared" si="68"/>
-        <v>44</v>
+        <v>33.800000000000011</v>
       </c>
       <c r="P887" s="13">
         <f t="shared" si="69"/>
-        <v>21.09300095877277</v>
+        <v>17.705605028810901</v>
       </c>
     </row>
     <row r="888" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -49436,42 +49436,42 @@
         <v>33</v>
       </c>
       <c r="F888" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G888" s="3">
-        <v>190.9</v>
+        <v>167.3</v>
       </c>
       <c r="H888" s="4">
-        <v>171.5</v>
+        <v>149.6</v>
       </c>
       <c r="I888" s="9">
-        <v>19.399999999999999</v>
+        <v>17.7</v>
       </c>
       <c r="J888" s="12">
         <f t="shared" si="66"/>
-        <v>10.162388685175483</v>
+        <v>10.579796772265389</v>
       </c>
       <c r="K888" s="4">
-        <v>162</v>
+        <v>141.30000000000001</v>
       </c>
       <c r="L888" s="10">
         <f t="shared" si="70"/>
-        <v>28.900000000000006</v>
+        <v>26</v>
       </c>
       <c r="M888" s="13">
         <f t="shared" si="67"/>
-        <v>15.138816134101626</v>
+        <v>15.540944411237298</v>
       </c>
       <c r="N888" s="4">
-        <v>157.1</v>
+        <v>137</v>
       </c>
       <c r="O888" s="10">
         <f t="shared" si="68"/>
-        <v>33.800000000000011</v>
+        <v>30.300000000000011</v>
       </c>
       <c r="P888" s="13">
         <f t="shared" si="69"/>
-        <v>17.705605028810901</v>
+        <v>18.11117752540347</v>
       </c>
     </row>
     <row r="889" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -49491,42 +49491,42 @@
         <v>33</v>
       </c>
       <c r="F889" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G889" s="3">
-        <v>167.3</v>
+        <v>190.4</v>
       </c>
       <c r="H889" s="4">
-        <v>149.6</v>
+        <v>171.2</v>
       </c>
       <c r="I889" s="9">
-        <v>17.7</v>
+        <v>19.2</v>
       </c>
       <c r="J889" s="12">
         <f t="shared" si="66"/>
-        <v>10.579796772265389</v>
+        <v>10.084033613445378</v>
       </c>
       <c r="K889" s="4">
-        <v>141.30000000000001</v>
+        <v>161.9</v>
       </c>
       <c r="L889" s="10">
         <f t="shared" si="70"/>
-        <v>26</v>
+        <v>28.5</v>
       </c>
       <c r="M889" s="13">
         <f t="shared" si="67"/>
-        <v>15.540944411237298</v>
+        <v>14.968487394957982</v>
       </c>
       <c r="N889" s="4">
-        <v>137</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="O889" s="10">
         <f t="shared" si="68"/>
-        <v>30.300000000000011</v>
+        <v>33.200000000000017</v>
       </c>
       <c r="P889" s="13">
         <f t="shared" si="69"/>
-        <v>18.11117752540347</v>
+        <v>17.436974789915975</v>
       </c>
     </row>
     <row r="890" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -49546,42 +49546,42 @@
         <v>33</v>
       </c>
       <c r="F890" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G890" s="3">
-        <v>190.4</v>
+        <v>155.19999999999999</v>
       </c>
       <c r="H890" s="4">
-        <v>171.2</v>
+        <v>133.9</v>
       </c>
       <c r="I890" s="9">
-        <v>19.2</v>
+        <v>21.3</v>
       </c>
       <c r="J890" s="12">
         <f t="shared" si="66"/>
-        <v>10.084033613445378</v>
+        <v>13.724226804123713</v>
       </c>
       <c r="K890" s="4">
-        <v>161.9</v>
+        <v>124.2</v>
       </c>
       <c r="L890" s="10">
         <f t="shared" si="70"/>
-        <v>28.5</v>
+        <v>30.999999999999986</v>
       </c>
       <c r="M890" s="13">
         <f t="shared" si="67"/>
-        <v>14.968487394957982</v>
+        <v>19.974226804123703</v>
       </c>
       <c r="N890" s="4">
-        <v>157.19999999999999</v>
+        <v>119.4</v>
       </c>
       <c r="O890" s="10">
         <f t="shared" si="68"/>
-        <v>33.200000000000017</v>
+        <v>35.799999999999983</v>
       </c>
       <c r="P890" s="13">
         <f t="shared" si="69"/>
-        <v>17.436974789915975</v>
+        <v>23.067010309278341</v>
       </c>
     </row>
     <row r="891" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -49601,42 +49601,42 @@
         <v>33</v>
       </c>
       <c r="F891" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G891" s="3">
-        <v>155.19999999999999</v>
+        <v>184.8</v>
       </c>
       <c r="H891" s="4">
-        <v>133.9</v>
+        <v>165.9</v>
       </c>
       <c r="I891" s="9">
-        <v>21.3</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="J891" s="12">
         <f t="shared" si="66"/>
-        <v>13.724226804123713</v>
+        <v>10.227272727272727</v>
       </c>
       <c r="K891" s="4">
-        <v>124.2</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="L891" s="10">
         <f t="shared" si="70"/>
-        <v>30.999999999999986</v>
+        <v>27.5</v>
       </c>
       <c r="M891" s="13">
         <f t="shared" si="67"/>
-        <v>19.974226804123703</v>
+        <v>14.880952380952381</v>
       </c>
       <c r="N891" s="4">
-        <v>119.4</v>
+        <v>152.5</v>
       </c>
       <c r="O891" s="10">
         <f t="shared" si="68"/>
-        <v>35.799999999999983</v>
+        <v>32.300000000000011</v>
       </c>
       <c r="P891" s="13">
         <f t="shared" si="69"/>
-        <v>23.067010309278341</v>
+        <v>17.478354978354986</v>
       </c>
     </row>
     <row r="892" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -49656,42 +49656,42 @@
         <v>33</v>
       </c>
       <c r="F892" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G892" s="3">
-        <v>184.8</v>
+        <v>194.4</v>
       </c>
       <c r="H892" s="4">
-        <v>165.9</v>
+        <v>178.5</v>
       </c>
       <c r="I892" s="9">
-        <v>18.899999999999999</v>
+        <v>15.9</v>
       </c>
       <c r="J892" s="12">
         <f t="shared" si="66"/>
-        <v>10.227272727272727</v>
+        <v>8.1790123456790127</v>
       </c>
       <c r="K892" s="4">
-        <v>157.30000000000001</v>
+        <v>170.9</v>
       </c>
       <c r="L892" s="10">
         <f t="shared" si="70"/>
-        <v>27.5</v>
+        <v>23.5</v>
       </c>
       <c r="M892" s="13">
         <f t="shared" si="67"/>
-        <v>14.880952380952381</v>
+        <v>12.088477366255143</v>
       </c>
       <c r="N892" s="4">
-        <v>152.5</v>
+        <v>167.1</v>
       </c>
       <c r="O892" s="10">
         <f t="shared" si="68"/>
-        <v>32.300000000000011</v>
+        <v>27.300000000000011</v>
       </c>
       <c r="P892" s="13">
         <f t="shared" si="69"/>
-        <v>17.478354978354986</v>
+        <v>14.043209876543214</v>
       </c>
     </row>
     <row r="893" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -49711,42 +49711,42 @@
         <v>33</v>
       </c>
       <c r="F893" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G893" s="3">
-        <v>194.4</v>
+        <v>160.19999999999999</v>
       </c>
       <c r="H893" s="4">
-        <v>178.5</v>
+        <v>146.9</v>
       </c>
       <c r="I893" s="9">
-        <v>15.9</v>
+        <v>13.3</v>
       </c>
       <c r="J893" s="12">
         <f t="shared" si="66"/>
-        <v>8.1790123456790127</v>
+        <v>8.3021223470661685</v>
       </c>
       <c r="K893" s="4">
-        <v>170.9</v>
+        <v>140.1</v>
       </c>
       <c r="L893" s="10">
         <f t="shared" si="70"/>
-        <v>23.5</v>
+        <v>20.099999999999994</v>
       </c>
       <c r="M893" s="13">
         <f t="shared" si="67"/>
-        <v>12.088477366255143</v>
+        <v>12.546816479400746</v>
       </c>
       <c r="N893" s="4">
-        <v>167.1</v>
+        <v>136.69999999999999</v>
       </c>
       <c r="O893" s="10">
         <f t="shared" si="68"/>
-        <v>27.300000000000011</v>
+        <v>23.5</v>
       </c>
       <c r="P893" s="13">
         <f t="shared" si="69"/>
-        <v>14.043209876543214</v>
+        <v>14.66916354556804</v>
       </c>
     </row>
     <row r="894" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -49766,42 +49766,42 @@
         <v>33</v>
       </c>
       <c r="F894" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G894" s="3">
-        <v>160.19999999999999</v>
+        <v>198.2</v>
       </c>
       <c r="H894" s="4">
-        <v>146.9</v>
+        <v>176.8</v>
       </c>
       <c r="I894" s="9">
-        <v>13.3</v>
+        <v>21.4</v>
       </c>
       <c r="J894" s="12">
         <f t="shared" si="66"/>
-        <v>8.3021223470661685</v>
+        <v>10.797174571140262</v>
       </c>
       <c r="K894" s="4">
-        <v>140.1</v>
+        <v>167</v>
       </c>
       <c r="L894" s="10">
         <f t="shared" si="70"/>
-        <v>20.099999999999994</v>
+        <v>31.199999999999989</v>
       </c>
       <c r="M894" s="13">
         <f t="shared" si="67"/>
-        <v>12.546816479400746</v>
+        <v>15.741675075681124</v>
       </c>
       <c r="N894" s="4">
-        <v>136.69999999999999</v>
+        <v>162.4</v>
       </c>
       <c r="O894" s="10">
         <f t="shared" si="68"/>
-        <v>23.5</v>
+        <v>35.799999999999983</v>
       </c>
       <c r="P894" s="13">
         <f t="shared" si="69"/>
-        <v>14.66916354556804</v>
+        <v>18.062563067608469</v>
       </c>
     </row>
     <row r="895" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -49821,42 +49821,42 @@
         <v>33</v>
       </c>
       <c r="F895" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G895" s="3">
-        <v>198.2</v>
+        <v>177.4</v>
       </c>
       <c r="H895" s="4">
-        <v>176.8</v>
+        <v>163.4</v>
       </c>
       <c r="I895" s="9">
-        <v>21.4</v>
+        <v>14</v>
       </c>
       <c r="J895" s="12">
         <f t="shared" si="66"/>
-        <v>10.797174571140262</v>
+        <v>7.8917700112739571</v>
       </c>
       <c r="K895" s="4">
-        <v>167</v>
+        <v>156.19999999999999</v>
       </c>
       <c r="L895" s="10">
         <f t="shared" si="70"/>
-        <v>31.199999999999989</v>
+        <v>21.200000000000017</v>
       </c>
       <c r="M895" s="13">
         <f t="shared" si="67"/>
-        <v>15.741675075681124</v>
+        <v>11.950394588500574</v>
       </c>
       <c r="N895" s="4">
-        <v>162.4</v>
+        <v>152.30000000000001</v>
       </c>
       <c r="O895" s="10">
         <f t="shared" si="68"/>
-        <v>35.799999999999983</v>
+        <v>25.099999999999994</v>
       </c>
       <c r="P895" s="13">
         <f t="shared" si="69"/>
-        <v>18.062563067608469</v>
+        <v>14.148816234498304</v>
       </c>
     </row>
     <row r="896" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -49876,42 +49876,42 @@
         <v>33</v>
       </c>
       <c r="F896" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G896" s="3">
-        <v>177.4</v>
+        <v>148.6</v>
       </c>
       <c r="H896" s="4">
-        <v>163.4</v>
+        <v>129.5</v>
       </c>
       <c r="I896" s="9">
-        <v>14</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="J896" s="12">
         <f t="shared" si="66"/>
-        <v>7.8917700112739571</v>
+        <v>12.853297442799464</v>
       </c>
       <c r="K896" s="4">
-        <v>156.19999999999999</v>
+        <v>120.8</v>
       </c>
       <c r="L896" s="10">
         <f t="shared" si="70"/>
-        <v>21.200000000000017</v>
+        <v>27.799999999999997</v>
       </c>
       <c r="M896" s="13">
         <f t="shared" si="67"/>
-        <v>11.950394588500574</v>
+        <v>18.707940780619111</v>
       </c>
       <c r="N896" s="4">
-        <v>152.30000000000001</v>
+        <v>115.2</v>
       </c>
       <c r="O896" s="10">
         <f t="shared" si="68"/>
-        <v>25.099999999999994</v>
+        <v>33.399999999999991</v>
       </c>
       <c r="P896" s="13">
         <f t="shared" si="69"/>
-        <v>14.148816234498304</v>
+        <v>22.476446837146696</v>
       </c>
     </row>
     <row r="897" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -49931,42 +49931,42 @@
         <v>33</v>
       </c>
       <c r="F897" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G897" s="3">
-        <v>148.6</v>
+        <v>205.6</v>
       </c>
       <c r="H897" s="4">
-        <v>129.5</v>
+        <v>184</v>
       </c>
       <c r="I897" s="9">
-        <v>19.100000000000001</v>
+        <v>21.6</v>
       </c>
       <c r="J897" s="12">
         <f t="shared" si="66"/>
-        <v>12.853297442799464</v>
+        <v>10.505836575875488</v>
       </c>
       <c r="K897" s="4">
-        <v>120.8</v>
+        <v>173.6</v>
       </c>
       <c r="L897" s="10">
         <f t="shared" si="70"/>
-        <v>27.799999999999997</v>
+        <v>32</v>
       </c>
       <c r="M897" s="13">
         <f t="shared" si="67"/>
-        <v>18.707940780619111</v>
+        <v>15.56420233463035</v>
       </c>
       <c r="N897" s="4">
-        <v>115.2</v>
+        <v>168.4</v>
       </c>
       <c r="O897" s="10">
         <f t="shared" si="68"/>
-        <v>33.399999999999991</v>
+        <v>37.199999999999989</v>
       </c>
       <c r="P897" s="13">
         <f t="shared" si="69"/>
-        <v>22.476446837146696</v>
+        <v>18.093385214007775</v>
       </c>
     </row>
     <row r="898" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -49986,42 +49986,42 @@
         <v>33</v>
       </c>
       <c r="F898" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G898" s="3">
-        <v>205.6</v>
+        <v>161</v>
       </c>
       <c r="H898" s="4">
-        <v>184</v>
+        <v>142.6</v>
       </c>
       <c r="I898" s="9">
-        <v>21.6</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="J898" s="12">
-        <f t="shared" si="66"/>
-        <v>10.505836575875488</v>
+        <f t="shared" ref="J898:J900" si="71">I898/G898*100</f>
+        <v>11.428571428571429</v>
       </c>
       <c r="K898" s="4">
-        <v>173.6</v>
+        <v>134.4</v>
       </c>
       <c r="L898" s="10">
         <f t="shared" si="70"/>
-        <v>32</v>
+        <v>26.599999999999994</v>
       </c>
       <c r="M898" s="13">
-        <f t="shared" si="67"/>
-        <v>15.56420233463035</v>
+        <f t="shared" ref="M898:M900" si="72">L898/G898*100</f>
+        <v>16.521739130434778</v>
       </c>
       <c r="N898" s="4">
-        <v>168.4</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="O898" s="10">
-        <f t="shared" si="68"/>
-        <v>37.199999999999989</v>
+        <f t="shared" ref="O898:O900" si="73">G898-N898</f>
+        <v>30.699999999999989</v>
       </c>
       <c r="P898" s="13">
-        <f t="shared" si="69"/>
-        <v>18.093385214007775</v>
+        <f t="shared" ref="P898:P900" si="74">O898/G898*100</f>
+        <v>19.068322981366453</v>
       </c>
     </row>
     <row r="899" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -50041,42 +50041,42 @@
         <v>33</v>
       </c>
       <c r="F899" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G899" s="3">
+        <v>160</v>
+      </c>
+      <c r="H899" s="4">
+        <v>140</v>
+      </c>
+      <c r="I899" s="9">
         <v>20</v>
       </c>
-      <c r="G899" s="3">
-        <v>161</v>
-      </c>
-      <c r="H899" s="4">
-        <v>142.6</v>
-      </c>
-      <c r="I899" s="9">
-        <v>18.399999999999999</v>
-      </c>
       <c r="J899" s="12">
-        <f t="shared" ref="J899:J901" si="71">I899/G899*100</f>
-        <v>11.428571428571429</v>
+        <f t="shared" si="71"/>
+        <v>12.5</v>
       </c>
       <c r="K899" s="4">
-        <v>134.4</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="L899" s="10">
         <f t="shared" si="70"/>
-        <v>26.599999999999994</v>
+        <v>29.199999999999989</v>
       </c>
       <c r="M899" s="13">
-        <f t="shared" ref="M899:M901" si="72">L899/G899*100</f>
-        <v>16.521739130434778</v>
+        <f t="shared" si="72"/>
+        <v>18.249999999999993</v>
       </c>
       <c r="N899" s="4">
-        <v>130.30000000000001</v>
+        <v>125.7</v>
       </c>
       <c r="O899" s="10">
-        <f t="shared" ref="O899:O901" si="73">G899-N899</f>
-        <v>30.699999999999989</v>
+        <f t="shared" si="73"/>
+        <v>34.299999999999997</v>
       </c>
       <c r="P899" s="13">
-        <f t="shared" ref="P899:P901" si="74">O899/G899*100</f>
-        <v>19.068322981366453</v>
+        <f t="shared" si="74"/>
+        <v>21.4375</v>
       </c>
     </row>
     <row r="900" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -50096,98 +50096,46 @@
         <v>33</v>
       </c>
       <c r="F900" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G900" s="3">
-        <v>160</v>
+        <v>160.6</v>
       </c>
       <c r="H900" s="4">
-        <v>140</v>
+        <v>144.69999999999999</v>
       </c>
       <c r="I900" s="9">
-        <v>20</v>
+        <v>15.9</v>
       </c>
       <c r="J900" s="12">
         <f t="shared" si="71"/>
-        <v>12.5</v>
+        <v>9.9003735990037374</v>
       </c>
       <c r="K900" s="4">
-        <v>130.80000000000001</v>
+        <v>136.9</v>
       </c>
       <c r="L900" s="10">
         <f t="shared" si="70"/>
-        <v>29.199999999999989</v>
+        <v>23.699999999999989</v>
       </c>
       <c r="M900" s="13">
         <f t="shared" si="72"/>
-        <v>18.249999999999993</v>
+        <v>14.757160647571599</v>
       </c>
       <c r="N900" s="4">
-        <v>125.7</v>
+        <v>132.80000000000001</v>
       </c>
       <c r="O900" s="10">
         <f t="shared" si="73"/>
-        <v>34.299999999999997</v>
+        <v>27.799999999999983</v>
       </c>
       <c r="P900" s="13">
         <f t="shared" si="74"/>
-        <v>21.4375</v>
+        <v>17.310087173100861</v>
       </c>
     </row>
     <row r="901" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A901" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B901" s="3">
-        <v>6</v>
-      </c>
-      <c r="C901" s="3">
-        <v>1</v>
-      </c>
-      <c r="D901" s="3">
-        <v>1</v>
-      </c>
-      <c r="E901" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F901" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G901" s="3">
-        <v>160.6</v>
-      </c>
-      <c r="H901" s="4">
-        <v>144.69999999999999</v>
-      </c>
-      <c r="I901" s="9">
-        <v>15.9</v>
-      </c>
-      <c r="J901" s="12">
-        <f t="shared" si="71"/>
-        <v>9.9003735990037374</v>
-      </c>
-      <c r="K901" s="4">
-        <v>136.9</v>
-      </c>
-      <c r="L901" s="10">
-        <f t="shared" si="70"/>
-        <v>23.699999999999989</v>
-      </c>
-      <c r="M901" s="13">
-        <f t="shared" si="72"/>
-        <v>14.757160647571599</v>
-      </c>
-      <c r="N901" s="4">
-        <v>132.80000000000001</v>
-      </c>
-      <c r="O901" s="10">
-        <f t="shared" si="73"/>
-        <v>27.799999999999983</v>
-      </c>
-      <c r="P901" s="13">
-        <f t="shared" si="74"/>
-        <v>17.310087173100861</v>
-      </c>
+      <c r="N901" s="17"/>
     </row>
     <row r="902" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N902" s="17"/>
@@ -50482,9 +50430,6 @@
     </row>
     <row r="999" spans="14:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N999" s="17"/>
-    </row>
-    <row r="1000" spans="14:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N1000" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
